--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D439C21D-5A47-4386-BC3C-D1587DB94DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38AE4EE-0FDA-4BDF-AB97-C89BCE10E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -1412,7 +1412,31 @@
     <t>WaDE Blank</t>
   </si>
   <si>
-    <t/>
+    <t>De-watering</t>
+  </si>
+  <si>
+    <t>Desalination</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Fracking Supply</t>
+  </si>
+  <si>
+    <t>Industrial (cooling)</t>
+  </si>
+  <si>
+    <t>Plugged or Destroyed</t>
+  </si>
+  <si>
+    <t>Rig Supply</t>
+  </si>
+  <si>
+    <t>Test Well</t>
+  </si>
+  <si>
+    <t>Withdrawal of Water</t>
   </si>
 </sst>
 </file>
@@ -2253,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F424" sqref="F424"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,16 +2298,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>459</v>
-      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2291,7 +2312,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2299,7 +2320,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2307,7 +2328,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2315,7 +2336,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2323,7 +2344,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2331,7 +2352,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2379,7 +2400,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2387,7 +2408,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -2395,7 +2416,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2403,7 +2424,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2411,7 +2432,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2419,7 +2440,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2427,7 +2448,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2435,7 +2456,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2443,7 +2464,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2451,7 +2472,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -2459,7 +2480,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -2467,7 +2488,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -2475,7 +2496,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -2483,7 +2504,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2491,7 +2512,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -2499,7 +2520,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -2507,7 +2528,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -2515,7 +2536,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -2523,7 +2544,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -2531,7 +2552,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2539,7 +2560,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -2547,7 +2568,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -2555,7 +2576,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2587,7 +2608,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -2595,7 +2616,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -2603,7 +2624,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -2611,7 +2632,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -2619,7 +2640,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -2627,7 +2648,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -2635,7 +2656,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -2643,7 +2664,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -2651,7 +2672,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -2699,7 +2720,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -2707,7 +2728,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -2715,7 +2736,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -2723,7 +2744,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -2731,7 +2752,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -2739,7 +2760,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -2747,7 +2768,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>55</v>
@@ -2795,7 +2816,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
         <v>55</v>
@@ -2803,7 +2824,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>55</v>
@@ -2843,15 +2864,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2859,7 +2880,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2867,7 +2888,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2875,7 +2896,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2883,7 +2904,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -2891,7 +2912,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -2899,7 +2920,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -2907,7 +2928,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
@@ -2923,7 +2944,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>75</v>
@@ -2931,7 +2952,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>75</v>
@@ -2939,7 +2960,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>75</v>
@@ -2947,7 +2968,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -2955,7 +2976,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>75</v>
@@ -2963,7 +2984,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>75</v>
@@ -2971,7 +2992,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>459</v>
       </c>
       <c r="B89" t="s">
         <v>75</v>
@@ -2979,7 +3000,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="B90" t="s">
         <v>75</v>
@@ -2987,7 +3008,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
         <v>75</v>
@@ -2995,7 +3016,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>75</v>
@@ -3003,7 +3024,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>75</v>
@@ -3011,7 +3032,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>75</v>
@@ -3019,7 +3040,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>75</v>
@@ -3027,7 +3048,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>75</v>
@@ -3043,7 +3064,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>463</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
@@ -3051,7 +3072,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>75</v>
@@ -3059,7 +3080,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s">
         <v>75</v>
@@ -3067,7 +3088,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
         <v>75</v>
@@ -3075,7 +3096,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
         <v>75</v>
@@ -3083,7 +3104,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -3091,7 +3112,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -3099,7 +3120,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
@@ -3107,7 +3128,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
@@ -3115,7 +3136,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
@@ -3123,7 +3144,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
@@ -3131,7 +3152,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
         <v>75</v>
@@ -3139,7 +3160,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
         <v>75</v>
@@ -3147,7 +3168,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
         <v>75</v>
@@ -3155,7 +3176,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>75</v>
@@ -3163,7 +3184,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
         <v>75</v>
@@ -3171,7 +3192,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>75</v>
@@ -3179,7 +3200,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>75</v>
@@ -3187,7 +3208,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>75</v>
@@ -3195,7 +3216,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>75</v>
@@ -3203,7 +3224,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>75</v>
@@ -3211,7 +3232,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>75</v>
@@ -3219,7 +3240,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>75</v>
@@ -3227,7 +3248,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>75</v>
@@ -3235,7 +3256,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>75</v>
@@ -3243,7 +3264,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="B123" t="s">
         <v>75</v>
@@ -3251,7 +3272,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>75</v>
@@ -3259,47 +3280,47 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -3307,7 +3328,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
         <v>128</v>
@@ -3315,7 +3336,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
         <v>128</v>
@@ -3323,7 +3344,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
         <v>128</v>
@@ -3331,7 +3352,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
         <v>128</v>
@@ -3347,7 +3368,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
@@ -3355,7 +3376,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
         <v>128</v>
@@ -3363,7 +3384,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
         <v>128</v>
@@ -3371,7 +3392,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B139" t="s">
         <v>128</v>
@@ -3379,7 +3400,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s">
         <v>128</v>
@@ -3387,7 +3408,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B141" t="s">
         <v>128</v>
@@ -3395,7 +3416,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
         <v>128</v>
@@ -3403,7 +3424,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
         <v>128</v>
@@ -3411,7 +3432,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B144" t="s">
         <v>128</v>
@@ -3419,7 +3440,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B145" t="s">
         <v>128</v>
@@ -3427,7 +3448,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B146" t="s">
         <v>128</v>
@@ -3435,7 +3456,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
         <v>128</v>
@@ -3443,7 +3464,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
         <v>128</v>
@@ -3451,7 +3472,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
         <v>128</v>
@@ -3459,7 +3480,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
         <v>128</v>
@@ -3467,7 +3488,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
         <v>128</v>
@@ -3475,7 +3496,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
         <v>128</v>
@@ -3483,7 +3504,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
         <v>128</v>
@@ -3491,7 +3512,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
         <v>128</v>
@@ -3499,7 +3520,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
         <v>128</v>
@@ -3507,7 +3528,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B156" t="s">
         <v>128</v>
@@ -3515,7 +3536,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B157" t="s">
         <v>128</v>
@@ -3523,87 +3544,87 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
@@ -3611,47 +3632,47 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
         <v>172</v>
@@ -3659,7 +3680,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>172</v>
@@ -3667,7 +3688,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
         <v>172</v>
@@ -3675,7 +3696,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>172</v>
@@ -3683,7 +3704,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>172</v>
@@ -3691,7 +3712,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>172</v>
@@ -3699,7 +3720,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>172</v>
@@ -3707,7 +3728,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
         <v>172</v>
@@ -3715,7 +3736,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
         <v>172</v>
@@ -3723,7 +3744,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
         <v>172</v>
@@ -3731,7 +3752,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
         <v>172</v>
@@ -3739,7 +3760,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
         <v>172</v>
@@ -3747,7 +3768,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>172</v>
@@ -3755,47 +3776,47 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
@@ -3803,7 +3824,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>191</v>
@@ -3811,7 +3832,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>191</v>
@@ -3819,7 +3840,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>191</v>
@@ -3827,7 +3848,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>191</v>
@@ -3835,7 +3856,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
         <v>191</v>
@@ -3843,7 +3864,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B198" t="s">
         <v>191</v>
@@ -3851,7 +3872,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
         <v>191</v>
@@ -3859,7 +3880,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>191</v>
@@ -3867,7 +3888,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>191</v>
@@ -3875,7 +3896,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>191</v>
@@ -3883,7 +3904,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>191</v>
@@ -3891,7 +3912,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>191</v>
@@ -3899,7 +3920,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>191</v>
@@ -3907,7 +3928,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>191</v>
@@ -3915,7 +3936,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>191</v>
@@ -3923,7 +3944,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>191</v>
@@ -3931,7 +3952,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>191</v>
@@ -3939,7 +3960,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>191</v>
@@ -3947,7 +3968,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
         <v>191</v>
@@ -3955,7 +3976,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>191</v>
@@ -3963,7 +3984,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>191</v>
@@ -3971,7 +3992,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>191</v>
@@ -3979,7 +4000,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>191</v>
@@ -3987,7 +4008,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>191</v>
@@ -3995,7 +4016,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>191</v>
@@ -4003,7 +4024,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>191</v>
@@ -4011,7 +4032,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>191</v>
@@ -4019,7 +4040,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>191</v>
@@ -4027,47 +4048,47 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -4075,7 +4096,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
@@ -4083,7 +4104,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>226</v>
@@ -4091,7 +4112,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B229" t="s">
         <v>226</v>
@@ -4099,7 +4120,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>226</v>
@@ -4107,7 +4128,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B231" t="s">
         <v>226</v>
@@ -4115,7 +4136,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>226</v>
@@ -4123,7 +4144,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>226</v>
@@ -4131,7 +4152,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>226</v>
@@ -4139,7 +4160,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>226</v>
@@ -4147,7 +4168,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>226</v>
@@ -4155,7 +4176,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B237" t="s">
         <v>226</v>
@@ -4171,47 +4192,47 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -4219,7 +4240,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
@@ -4227,7 +4248,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="B246" t="s">
         <v>244</v>
@@ -4235,7 +4256,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>244</v>
@@ -4243,7 +4264,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B248" t="s">
         <v>244</v>
@@ -4251,7 +4272,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B249" t="s">
         <v>244</v>
@@ -4259,7 +4280,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
         <v>244</v>
@@ -4267,55 +4288,55 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>256</v>
@@ -4323,7 +4344,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>256</v>
@@ -4331,7 +4352,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
         <v>256</v>
@@ -4339,7 +4360,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>256</v>
@@ -4347,7 +4368,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>256</v>
@@ -4355,7 +4376,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>256</v>
@@ -4363,7 +4384,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>256</v>
@@ -4371,7 +4392,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>256</v>
@@ -4379,7 +4400,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>256</v>
@@ -4387,7 +4408,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>256</v>
@@ -4395,7 +4416,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>256</v>
@@ -4403,55 +4424,55 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
@@ -4459,7 +4480,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="B275" t="s">
         <v>274</v>
@@ -4467,7 +4488,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>274</v>
@@ -4475,7 +4496,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>274</v>
@@ -4483,7 +4504,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>274</v>
@@ -4491,7 +4512,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>274</v>
@@ -4499,7 +4520,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
         <v>274</v>
@@ -4507,7 +4528,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>274</v>
@@ -4515,7 +4536,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>274</v>
@@ -4523,7 +4544,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>274</v>
@@ -4531,7 +4552,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>274</v>
@@ -4539,7 +4560,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>274</v>
@@ -4547,7 +4568,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>274</v>
@@ -4555,7 +4576,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>274</v>
@@ -4563,7 +4584,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>274</v>
@@ -4571,7 +4592,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>274</v>
@@ -4579,7 +4600,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>274</v>
@@ -4587,7 +4608,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>274</v>
@@ -4595,7 +4616,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>274</v>
@@ -4603,7 +4624,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>274</v>
@@ -4611,7 +4632,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>274</v>
@@ -4619,7 +4640,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>274</v>
@@ -4627,7 +4648,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="B296" t="s">
         <v>274</v>
@@ -4635,7 +4656,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="B297" t="s">
         <v>274</v>
@@ -4643,7 +4664,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B298" t="s">
         <v>274</v>
@@ -4651,7 +4672,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B299" t="s">
         <v>274</v>
@@ -4659,7 +4680,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B300" t="s">
         <v>274</v>
@@ -4667,7 +4688,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B301" t="s">
         <v>274</v>
@@ -4675,7 +4696,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B302" t="s">
         <v>274</v>
@@ -4683,7 +4704,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B303" t="s">
         <v>274</v>
@@ -4691,7 +4712,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B304" t="s">
         <v>274</v>
@@ -4699,7 +4720,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B305" t="s">
         <v>274</v>
@@ -4707,7 +4728,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B306" t="s">
         <v>274</v>
@@ -4715,7 +4736,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B307" t="s">
         <v>274</v>
@@ -4723,7 +4744,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B308" t="s">
         <v>274</v>
@@ -4731,7 +4752,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B309" t="s">
         <v>274</v>
@@ -4739,7 +4760,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B310" t="s">
         <v>274</v>
@@ -4747,7 +4768,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B311" t="s">
         <v>274</v>
@@ -4755,7 +4776,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B312" t="s">
         <v>274</v>
@@ -4763,7 +4784,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B313" t="s">
         <v>274</v>
@@ -4771,7 +4792,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B314" t="s">
         <v>274</v>
@@ -4779,7 +4800,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B315" t="s">
         <v>274</v>
@@ -4787,7 +4808,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B316" t="s">
         <v>274</v>
@@ -4795,7 +4816,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B317" t="s">
         <v>274</v>
@@ -4803,7 +4824,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>274</v>
@@ -4811,7 +4832,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>274</v>
@@ -4819,7 +4840,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B320" t="s">
         <v>274</v>
@@ -4827,7 +4848,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B321" t="s">
         <v>274</v>
@@ -4835,7 +4856,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="B322" t="s">
         <v>274</v>
@@ -4843,7 +4864,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B323" t="s">
         <v>274</v>
@@ -4851,7 +4872,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s">
         <v>274</v>
@@ -4859,7 +4880,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B325" t="s">
         <v>274</v>
@@ -4867,7 +4888,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B326" t="s">
         <v>274</v>
@@ -4875,7 +4896,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B327" t="s">
         <v>274</v>
@@ -4883,7 +4904,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B328" t="s">
         <v>274</v>
@@ -4891,7 +4912,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B329" t="s">
         <v>274</v>
@@ -4899,7 +4920,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B330" t="s">
         <v>274</v>
@@ -4907,7 +4928,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B331" t="s">
         <v>274</v>
@@ -4915,7 +4936,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B332" t="s">
         <v>274</v>
@@ -4923,7 +4944,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B333" t="s">
         <v>274</v>
@@ -4931,7 +4952,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B334" t="s">
         <v>274</v>
@@ -4939,7 +4960,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B335" t="s">
         <v>274</v>
@@ -4947,7 +4968,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B336" t="s">
         <v>274</v>
@@ -4955,7 +4976,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B337" t="s">
         <v>274</v>
@@ -4963,7 +4984,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B338" t="s">
         <v>274</v>
@@ -4971,7 +4992,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>274</v>
@@ -4979,7 +5000,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B340" t="s">
         <v>274</v>
@@ -4987,7 +5008,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B341" t="s">
         <v>274</v>
@@ -4995,7 +5016,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>274</v>
@@ -5003,7 +5024,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
         <v>274</v>
@@ -5011,7 +5032,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B344" t="s">
         <v>274</v>
@@ -5019,7 +5040,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>274</v>
@@ -5027,7 +5048,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>274</v>
@@ -5035,63 +5056,63 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>269</v>
@@ -5099,7 +5120,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B355" t="s">
         <v>269</v>
@@ -5107,7 +5128,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B356" t="s">
         <v>269</v>
@@ -5115,7 +5136,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B357" t="s">
         <v>269</v>
@@ -5123,7 +5144,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B358" t="s">
         <v>269</v>
@@ -5131,7 +5152,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B359" t="s">
         <v>269</v>
@@ -5139,7 +5160,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B360" t="s">
         <v>269</v>
@@ -5147,7 +5168,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B361" t="s">
         <v>269</v>
@@ -5155,7 +5176,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B362" t="s">
         <v>269</v>
@@ -5163,7 +5184,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B363" t="s">
         <v>269</v>
@@ -5171,7 +5192,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B364" t="s">
         <v>269</v>
@@ -5179,7 +5200,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B365" t="s">
         <v>269</v>
@@ -5187,7 +5208,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B366" t="s">
         <v>269</v>
@@ -5195,7 +5216,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B367" t="s">
         <v>269</v>
@@ -5203,7 +5224,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B368" t="s">
         <v>269</v>
@@ -5211,7 +5232,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B369" t="s">
         <v>269</v>
@@ -5219,7 +5240,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B370" t="s">
         <v>269</v>
@@ -5227,7 +5248,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B371" t="s">
         <v>269</v>
@@ -5235,7 +5256,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B372" t="s">
         <v>269</v>
@@ -5243,7 +5264,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B373" t="s">
         <v>269</v>
@@ -5251,63 +5272,63 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B374" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B375" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B376" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>380</v>
@@ -5315,7 +5336,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B382" t="s">
         <v>380</v>
@@ -5323,7 +5344,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>380</v>
@@ -5331,7 +5352,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>380</v>
@@ -5339,63 +5360,63 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B385" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B390" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>391</v>
@@ -5403,7 +5424,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B393" t="s">
         <v>391</v>
@@ -5411,7 +5432,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B394" t="s">
         <v>391</v>
@@ -5419,7 +5440,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B395" t="s">
         <v>391</v>
@@ -5427,7 +5448,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>391</v>
@@ -5435,7 +5456,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>391</v>
@@ -5443,7 +5464,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B398" t="s">
         <v>391</v>
@@ -5451,7 +5472,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B399" t="s">
         <v>391</v>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B400" t="s">
         <v>391</v>
@@ -5467,7 +5488,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B401" t="s">
         <v>391</v>
@@ -5475,79 +5496,79 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B402" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B403" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -5555,7 +5576,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B412" t="s">
         <v>412</v>
@@ -5563,7 +5584,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B413" t="s">
         <v>412</v>
@@ -5571,7 +5592,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B414" t="s">
         <v>412</v>
@@ -5579,7 +5600,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B415" t="s">
         <v>412</v>
@@ -5587,7 +5608,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B416" t="s">
         <v>412</v>
@@ -5595,7 +5616,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B417" t="s">
         <v>412</v>
@@ -5603,7 +5624,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B418" t="s">
         <v>412</v>
@@ -5611,87 +5632,87 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B420" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B421" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B423" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B424" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B425" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B426" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B427" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
@@ -5699,7 +5720,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B430" t="s">
         <v>2</v>
@@ -5707,7 +5728,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B431" t="s">
         <v>2</v>
@@ -5715,7 +5736,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
         <v>2</v>
@@ -5723,7 +5744,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B433" t="s">
         <v>2</v>
@@ -5731,7 +5752,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B434" t="s">
         <v>2</v>
@@ -5739,7 +5760,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
@@ -5747,7 +5768,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
         <v>2</v>
@@ -5755,7 +5776,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -5763,7 +5784,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
@@ -5771,7 +5792,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -5779,7 +5800,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B440" t="s">
         <v>2</v>
@@ -5787,7 +5808,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -5795,7 +5816,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
@@ -5803,7 +5824,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -5811,7 +5832,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -5819,7 +5840,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -5827,7 +5848,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
@@ -5835,7 +5856,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -5843,7 +5864,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -5851,7 +5872,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5859,9 +5880,81 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>2</v>
+      </c>
+      <c r="B457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>458</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>467</v>
+      </c>
+      <c r="B459" t="s">
         <v>2</v>
       </c>
     </row>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38AE4EE-0FDA-4BDF-AB97-C89BCE10E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F8D41-1EFC-4453-94D0-07F838993A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="477">
   <si>
     <t>Name</t>
   </si>
@@ -1437,6 +1437,33 @@
   </si>
   <si>
     <t>Withdrawal of Water</t>
+  </si>
+  <si>
+    <t>Cathodic Protection</t>
+  </si>
+  <si>
+    <t>Sparging</t>
+  </si>
+  <si>
+    <t>Vapor Extraction</t>
+  </si>
+  <si>
+    <t>Water Supply Domestic</t>
+  </si>
+  <si>
+    <t>Water Supply Industrial</t>
+  </si>
+  <si>
+    <t>Water Supply Irrigation - Agriculture</t>
+  </si>
+  <si>
+    <t>Water Supply Irrigation - Landscape</t>
+  </si>
+  <si>
+    <t>Water Supply Public</t>
+  </si>
+  <si>
+    <t>Water Supply Stock or Animal Watering</t>
   </si>
 </sst>
 </file>
@@ -2277,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:B468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="I418" sqref="I418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,15 +2611,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>473</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -2600,7 +2627,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -2608,7 +2635,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -2616,7 +2643,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -2624,7 +2651,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -2632,7 +2659,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -2640,7 +2667,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -2648,7 +2675,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -2656,7 +2683,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -2664,7 +2691,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -2672,7 +2699,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -2680,7 +2707,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -2688,7 +2715,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -2696,7 +2723,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -2704,7 +2731,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -2712,15 +2739,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -2728,7 +2755,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -2736,7 +2763,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -2744,7 +2771,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
         <v>55</v>
@@ -2752,7 +2779,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -2760,7 +2787,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
@@ -2768,7 +2795,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>55</v>
@@ -2776,7 +2803,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>55</v>
@@ -2784,7 +2811,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>55</v>
@@ -2792,7 +2819,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
@@ -2800,7 +2827,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>55</v>
@@ -2808,7 +2835,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>55</v>
@@ -2816,7 +2843,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>55</v>
@@ -2824,7 +2851,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>55</v>
@@ -2832,7 +2859,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>55</v>
@@ -2840,7 +2867,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>55</v>
@@ -2848,7 +2875,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>55</v>
@@ -2856,7 +2883,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
@@ -2864,7 +2891,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>55</v>
@@ -2872,15 +2899,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2888,7 +2915,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2896,7 +2923,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2904,7 +2931,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -2912,7 +2939,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -2920,7 +2947,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -2928,7 +2955,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
@@ -2936,7 +2963,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>75</v>
@@ -2952,7 +2979,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>75</v>
@@ -2960,7 +2987,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>75</v>
@@ -2968,7 +2995,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -2976,7 +3003,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>75</v>
@@ -2984,7 +3011,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>75</v>
@@ -2992,7 +3019,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>459</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>75</v>
@@ -3008,7 +3035,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="B91" t="s">
         <v>75</v>
@@ -3016,7 +3043,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>75</v>
@@ -3024,7 +3051,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>75</v>
@@ -3032,7 +3059,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
         <v>75</v>
@@ -3040,7 +3067,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>75</v>
@@ -3048,7 +3075,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>75</v>
@@ -3056,7 +3083,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>75</v>
@@ -3064,7 +3091,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>463</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>75</v>
@@ -3072,7 +3099,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="B99" t="s">
         <v>75</v>
@@ -3080,7 +3107,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
         <v>75</v>
@@ -3088,7 +3115,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
         <v>75</v>
@@ -3096,7 +3123,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
         <v>75</v>
@@ -3104,7 +3131,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -3112,7 +3139,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -3120,7 +3147,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
         <v>75</v>
@@ -3128,7 +3155,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
         <v>75</v>
@@ -3136,7 +3163,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
@@ -3144,7 +3171,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
         <v>75</v>
@@ -3152,7 +3179,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
         <v>75</v>
@@ -3160,7 +3187,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
         <v>75</v>
@@ -3168,7 +3195,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
         <v>75</v>
@@ -3176,7 +3203,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
         <v>75</v>
@@ -3184,7 +3211,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>75</v>
@@ -3192,7 +3219,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
         <v>75</v>
@@ -3200,7 +3227,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
         <v>75</v>
@@ -3208,7 +3235,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" t="s">
         <v>75</v>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" t="s">
         <v>75</v>
@@ -3224,7 +3251,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
         <v>75</v>
@@ -3232,7 +3259,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" t="s">
         <v>75</v>
@@ -3240,7 +3267,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
         <v>75</v>
@@ -3248,7 +3275,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>75</v>
@@ -3256,7 +3283,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
         <v>75</v>
@@ -3264,7 +3291,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>465</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
         <v>75</v>
@@ -3272,7 +3299,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>465</v>
       </c>
       <c r="B124" t="s">
         <v>75</v>
@@ -3280,7 +3307,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" t="s">
         <v>75</v>
@@ -3288,7 +3315,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" t="s">
         <v>75</v>
@@ -3296,7 +3323,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
         <v>75</v>
@@ -3304,7 +3331,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B128" t="s">
         <v>75</v>
@@ -3312,7 +3339,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129" t="s">
         <v>75</v>
@@ -3320,39 +3347,39 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>469</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>470</v>
       </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
         <v>128</v>
@@ -3360,7 +3387,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
         <v>128</v>
@@ -3368,7 +3395,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
@@ -3376,7 +3403,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B137" t="s">
         <v>128</v>
@@ -3384,7 +3411,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B138" t="s">
         <v>128</v>
@@ -3392,7 +3419,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>128</v>
@@ -3400,7 +3427,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
         <v>128</v>
@@ -3408,7 +3435,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>128</v>
@@ -3416,7 +3443,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
         <v>128</v>
@@ -3424,7 +3451,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
         <v>128</v>
@@ -3432,7 +3459,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B144" t="s">
         <v>128</v>
@@ -3440,7 +3467,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B145" t="s">
         <v>128</v>
@@ -3448,7 +3475,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B146" t="s">
         <v>128</v>
@@ -3456,7 +3483,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
         <v>128</v>
@@ -3464,7 +3491,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
         <v>128</v>
@@ -3472,7 +3499,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B149" t="s">
         <v>128</v>
@@ -3480,7 +3507,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B150" t="s">
         <v>128</v>
@@ -3488,7 +3515,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B151" t="s">
         <v>128</v>
@@ -3496,7 +3523,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B152" t="s">
         <v>128</v>
@@ -3504,7 +3531,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B153" t="s">
         <v>128</v>
@@ -3512,7 +3539,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B154" t="s">
         <v>128</v>
@@ -3520,7 +3547,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B155" t="s">
         <v>128</v>
@@ -3528,7 +3555,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
         <v>128</v>
@@ -3536,7 +3563,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B157" t="s">
         <v>128</v>
@@ -3544,7 +3571,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
         <v>128</v>
@@ -3552,7 +3579,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B159" t="s">
         <v>128</v>
@@ -3560,7 +3587,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B160" t="s">
         <v>128</v>
@@ -3568,7 +3595,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B161" t="s">
         <v>128</v>
@@ -3576,7 +3603,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B162" t="s">
         <v>128</v>
@@ -3584,87 +3611,87 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B173" t="s">
         <v>166</v>
@@ -3672,47 +3699,47 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B179" t="s">
         <v>172</v>
@@ -3720,7 +3747,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B180" t="s">
         <v>172</v>
@@ -3728,7 +3755,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B181" t="s">
         <v>172</v>
@@ -3736,7 +3763,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s">
         <v>172</v>
@@ -3744,7 +3771,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" t="s">
         <v>172</v>
@@ -3752,7 +3779,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B184" t="s">
         <v>172</v>
@@ -3760,7 +3787,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
         <v>172</v>
@@ -3768,7 +3795,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
         <v>172</v>
@@ -3776,7 +3803,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
         <v>172</v>
@@ -3784,7 +3811,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B188" t="s">
         <v>172</v>
@@ -3792,7 +3819,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B189" t="s">
         <v>172</v>
@@ -3800,7 +3827,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B190" t="s">
         <v>172</v>
@@ -3808,7 +3835,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B191" t="s">
         <v>172</v>
@@ -3816,47 +3843,47 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B197" t="s">
         <v>191</v>
@@ -3864,7 +3891,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
         <v>191</v>
@@ -3872,7 +3899,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B199" t="s">
         <v>191</v>
@@ -3880,7 +3907,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
         <v>191</v>
@@ -3888,7 +3915,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B201" t="s">
         <v>191</v>
@@ -3896,7 +3923,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B202" t="s">
         <v>191</v>
@@ -3904,7 +3931,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B203" t="s">
         <v>191</v>
@@ -3912,7 +3939,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B204" t="s">
         <v>191</v>
@@ -3920,7 +3947,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
         <v>191</v>
@@ -3928,7 +3955,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
         <v>191</v>
@@ -3936,7 +3963,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
         <v>191</v>
@@ -3944,7 +3971,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B208" t="s">
         <v>191</v>
@@ -3952,7 +3979,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B209" t="s">
         <v>191</v>
@@ -3960,7 +3987,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B210" t="s">
         <v>191</v>
@@ -3968,7 +3995,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B211" t="s">
         <v>191</v>
@@ -3976,7 +4003,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B212" t="s">
         <v>191</v>
@@ -3984,7 +4011,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B213" t="s">
         <v>191</v>
@@ -3992,7 +4019,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B214" t="s">
         <v>191</v>
@@ -4000,7 +4027,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B215" t="s">
         <v>191</v>
@@ -4008,7 +4035,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B216" t="s">
         <v>191</v>
@@ -4016,7 +4043,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B217" t="s">
         <v>191</v>
@@ -4024,7 +4051,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B218" t="s">
         <v>191</v>
@@ -4032,7 +4059,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B219" t="s">
         <v>191</v>
@@ -4040,7 +4067,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B220" t="s">
         <v>191</v>
@@ -4048,7 +4075,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B221" t="s">
         <v>191</v>
@@ -4056,7 +4083,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B222" t="s">
         <v>191</v>
@@ -4064,7 +4091,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B223" t="s">
         <v>191</v>
@@ -4072,7 +4099,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B224" t="s">
         <v>191</v>
@@ -4080,7 +4107,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B225" t="s">
         <v>191</v>
@@ -4088,47 +4115,47 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>226</v>
@@ -4136,7 +4163,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B232" t="s">
         <v>226</v>
@@ -4144,7 +4171,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B233" t="s">
         <v>226</v>
@@ -4152,7 +4179,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B234" t="s">
         <v>226</v>
@@ -4160,7 +4187,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B235" t="s">
         <v>226</v>
@@ -4168,7 +4195,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B236" t="s">
         <v>226</v>
@@ -4176,7 +4203,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B237" t="s">
         <v>226</v>
@@ -4184,7 +4211,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B238" t="s">
         <v>226</v>
@@ -4192,7 +4219,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B239" t="s">
         <v>226</v>
@@ -4200,7 +4227,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B240" t="s">
         <v>226</v>
@@ -4208,7 +4235,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
         <v>226</v>
@@ -4216,7 +4243,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B242" t="s">
         <v>226</v>
@@ -4224,7 +4251,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>226</v>
@@ -4232,55 +4259,55 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>462</v>
+        <v>239</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B248" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>244</v>
+        <v>476</v>
       </c>
       <c r="B249" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B250" t="s">
         <v>244</v>
@@ -4288,7 +4315,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
         <v>244</v>
@@ -4296,7 +4323,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>462</v>
       </c>
       <c r="B252" t="s">
         <v>244</v>
@@ -4304,7 +4331,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B253" t="s">
         <v>244</v>
@@ -4312,7 +4339,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
         <v>244</v>
@@ -4320,7 +4347,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
         <v>244</v>
@@ -4328,7 +4355,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B256" t="s">
         <v>244</v>
@@ -4336,55 +4363,55 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B262" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B263" t="s">
         <v>256</v>
@@ -4392,7 +4419,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B264" t="s">
         <v>256</v>
@@ -4400,7 +4427,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B265" t="s">
         <v>256</v>
@@ -4408,7 +4435,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B266" t="s">
         <v>256</v>
@@ -4416,7 +4443,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B267" t="s">
         <v>256</v>
@@ -4424,7 +4451,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B268" t="s">
         <v>256</v>
@@ -4432,7 +4459,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B269" t="s">
         <v>256</v>
@@ -4440,7 +4467,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B270" t="s">
         <v>256</v>
@@ -4448,7 +4475,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B271" t="s">
         <v>256</v>
@@ -4456,7 +4483,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
         <v>256</v>
@@ -4464,7 +4491,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B273" t="s">
         <v>256</v>
@@ -4472,63 +4499,63 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B279" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B281" t="s">
         <v>274</v>
@@ -4536,7 +4563,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="B282" t="s">
         <v>274</v>
@@ -4544,7 +4571,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B283" t="s">
         <v>274</v>
@@ -4552,7 +4579,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B284" t="s">
         <v>274</v>
@@ -4560,7 +4587,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B285" t="s">
         <v>274</v>
@@ -4568,7 +4595,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B286" t="s">
         <v>274</v>
@@ -4576,7 +4603,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B287" t="s">
         <v>274</v>
@@ -4584,7 +4611,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B288" t="s">
         <v>274</v>
@@ -4592,7 +4619,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B289" t="s">
         <v>274</v>
@@ -4600,7 +4627,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B290" t="s">
         <v>274</v>
@@ -4608,7 +4635,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B291" t="s">
         <v>274</v>
@@ -4616,7 +4643,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B292" t="s">
         <v>274</v>
@@ -4624,7 +4651,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B293" t="s">
         <v>274</v>
@@ -4632,7 +4659,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B294" t="s">
         <v>274</v>
@@ -4640,7 +4667,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B295" t="s">
         <v>274</v>
@@ -4648,7 +4675,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="B296" t="s">
         <v>274</v>
@@ -4656,7 +4683,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>461</v>
+        <v>289</v>
       </c>
       <c r="B297" t="s">
         <v>274</v>
@@ -4664,7 +4691,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B298" t="s">
         <v>274</v>
@@ -4672,7 +4699,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B299" t="s">
         <v>274</v>
@@ -4680,7 +4707,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B300" t="s">
         <v>274</v>
@@ -4688,7 +4715,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B301" t="s">
         <v>274</v>
@@ -4696,7 +4723,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s">
         <v>274</v>
@@ -4704,7 +4731,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B303" t="s">
         <v>274</v>
@@ -4712,7 +4739,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>301</v>
+        <v>461</v>
       </c>
       <c r="B304" t="s">
         <v>274</v>
@@ -4720,7 +4747,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B305" t="s">
         <v>274</v>
@@ -4728,7 +4755,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B306" t="s">
         <v>274</v>
@@ -4736,7 +4763,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B307" t="s">
         <v>274</v>
@@ -4744,7 +4771,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B308" t="s">
         <v>274</v>
@@ -4752,7 +4779,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B309" t="s">
         <v>274</v>
@@ -4760,7 +4787,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B310" t="s">
         <v>274</v>
@@ -4768,7 +4795,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B311" t="s">
         <v>274</v>
@@ -4776,7 +4803,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B312" t="s">
         <v>274</v>
@@ -4784,7 +4811,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
         <v>274</v>
@@ -4792,7 +4819,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B314" t="s">
         <v>274</v>
@@ -4800,7 +4827,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B315" t="s">
         <v>274</v>
@@ -4808,7 +4835,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B316" t="s">
         <v>274</v>
@@ -4816,7 +4843,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B317" t="s">
         <v>274</v>
@@ -4824,7 +4851,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B318" t="s">
         <v>274</v>
@@ -4832,7 +4859,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B319" t="s">
         <v>274</v>
@@ -4840,7 +4867,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B320" t="s">
         <v>274</v>
@@ -4848,7 +4875,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B321" t="s">
         <v>274</v>
@@ -4856,7 +4883,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B322" t="s">
         <v>274</v>
@@ -4864,7 +4891,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B323" t="s">
         <v>274</v>
@@ -4872,7 +4899,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B324" t="s">
         <v>274</v>
@@ -4880,7 +4907,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B325" t="s">
         <v>274</v>
@@ -4888,7 +4915,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B326" t="s">
         <v>274</v>
@@ -4896,7 +4923,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B327" t="s">
         <v>274</v>
@@ -4904,7 +4931,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B328" t="s">
         <v>274</v>
@@ -4912,7 +4939,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="B329" t="s">
         <v>274</v>
@@ -4920,7 +4947,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B330" t="s">
         <v>274</v>
@@ -4928,7 +4955,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B331" t="s">
         <v>274</v>
@@ -4936,7 +4963,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B332" t="s">
         <v>274</v>
@@ -4944,7 +4971,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B333" t="s">
         <v>274</v>
@@ -4952,7 +4979,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B334" t="s">
         <v>274</v>
@@ -4960,7 +4987,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B335" t="s">
         <v>274</v>
@@ -4968,7 +4995,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B336" t="s">
         <v>274</v>
@@ -4976,7 +5003,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B337" t="s">
         <v>274</v>
@@ -4984,7 +5011,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B338" t="s">
         <v>274</v>
@@ -4992,7 +5019,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B339" t="s">
         <v>274</v>
@@ -5000,7 +5027,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B340" t="s">
         <v>274</v>
@@ -5008,7 +5035,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B341" t="s">
         <v>274</v>
@@ -5016,7 +5043,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B342" t="s">
         <v>274</v>
@@ -5024,7 +5051,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B343" t="s">
         <v>274</v>
@@ -5032,7 +5059,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B344" t="s">
         <v>274</v>
@@ -5040,7 +5067,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B345" t="s">
         <v>274</v>
@@ -5048,7 +5075,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B346" t="s">
         <v>274</v>
@@ -5056,7 +5083,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B347" t="s">
         <v>274</v>
@@ -5064,7 +5091,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B348" t="s">
         <v>274</v>
@@ -5072,7 +5099,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B349" t="s">
         <v>274</v>
@@ -5080,7 +5107,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B350" t="s">
         <v>274</v>
@@ -5088,7 +5115,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B351" t="s">
         <v>274</v>
@@ -5096,7 +5123,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B352" t="s">
         <v>274</v>
@@ -5104,7 +5131,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B353" t="s">
         <v>274</v>
@@ -5112,63 +5139,63 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B354" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="B355" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B356" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B357" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B358" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B359" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B360" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B361" t="s">
         <v>269</v>
@@ -5176,7 +5203,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B362" t="s">
         <v>269</v>
@@ -5184,7 +5211,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B363" t="s">
         <v>269</v>
@@ -5192,7 +5219,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B364" t="s">
         <v>269</v>
@@ -5200,7 +5227,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B365" t="s">
         <v>269</v>
@@ -5208,7 +5235,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B366" t="s">
         <v>269</v>
@@ -5216,7 +5243,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B367" t="s">
         <v>269</v>
@@ -5224,7 +5251,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B368" t="s">
         <v>269</v>
@@ -5232,7 +5259,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B369" t="s">
         <v>269</v>
@@ -5240,7 +5267,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B370" t="s">
         <v>269</v>
@@ -5248,7 +5275,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B371" t="s">
         <v>269</v>
@@ -5256,7 +5283,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B372" t="s">
         <v>269</v>
@@ -5264,7 +5291,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B373" t="s">
         <v>269</v>
@@ -5272,7 +5299,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B374" t="s">
         <v>269</v>
@@ -5280,7 +5307,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B375" t="s">
         <v>269</v>
@@ -5288,7 +5315,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B376" t="s">
         <v>269</v>
@@ -5296,7 +5323,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B377" t="s">
         <v>269</v>
@@ -5304,7 +5331,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B378" t="s">
         <v>269</v>
@@ -5312,7 +5339,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B379" t="s">
         <v>269</v>
@@ -5320,7 +5347,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B380" t="s">
         <v>269</v>
@@ -5328,71 +5355,71 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B383" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B384" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B385" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B386" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B387" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="B388" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B389" t="s">
         <v>380</v>
@@ -5400,7 +5427,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B390" t="s">
         <v>380</v>
@@ -5408,7 +5435,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B391" t="s">
         <v>380</v>
@@ -5416,71 +5443,71 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B394" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B395" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B396" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B397" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B398" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B399" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B400" t="s">
         <v>391</v>
@@ -5488,7 +5515,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B401" t="s">
         <v>391</v>
@@ -5496,7 +5523,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B402" t="s">
         <v>391</v>
@@ -5504,7 +5531,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B403" t="s">
         <v>391</v>
@@ -5512,7 +5539,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B404" t="s">
         <v>391</v>
@@ -5520,7 +5547,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B405" t="s">
         <v>391</v>
@@ -5528,7 +5555,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B406" t="s">
         <v>391</v>
@@ -5536,7 +5563,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B407" t="s">
         <v>391</v>
@@ -5544,7 +5571,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B408" t="s">
         <v>391</v>
@@ -5552,87 +5579,87 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B409" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B410" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B411" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B412" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B413" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B414" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B415" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B416" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B417" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B418" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B419" t="s">
         <v>412</v>
@@ -5640,7 +5667,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B420" t="s">
         <v>412</v>
@@ -5648,7 +5675,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B421" t="s">
         <v>412</v>
@@ -5656,7 +5683,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B422" t="s">
         <v>412</v>
@@ -5664,7 +5691,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B423" t="s">
         <v>412</v>
@@ -5672,7 +5699,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B424" t="s">
         <v>412</v>
@@ -5680,7 +5707,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B425" t="s">
         <v>412</v>
@@ -5688,95 +5715,95 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B426" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B427" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B428" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B429" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B430" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B431" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B432" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B433" t="s">
-        <v>2</v>
+        <v>412</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B435" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B436" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -5784,7 +5811,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
@@ -5792,7 +5819,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -5800,7 +5827,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B440" t="s">
         <v>2</v>
@@ -5808,7 +5835,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -5816,7 +5843,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
@@ -5824,7 +5851,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -5832,7 +5859,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -5840,7 +5867,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -5848,7 +5875,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
@@ -5856,7 +5883,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -5864,7 +5891,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -5872,7 +5899,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5880,7 +5907,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -5888,7 +5915,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5896,7 +5923,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -5904,7 +5931,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -5912,7 +5939,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B454" t="s">
         <v>2</v>
@@ -5920,7 +5947,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B455" t="s">
         <v>2</v>
@@ -5928,7 +5955,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B456" t="s">
         <v>2</v>
@@ -5936,7 +5963,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="B457" t="s">
         <v>2</v>
@@ -5944,7 +5971,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B458" t="s">
         <v>2</v>
@@ -5952,13 +5979,88 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B459" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>452</v>
+      </c>
+      <c r="B460" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>453</v>
+      </c>
+      <c r="B461" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>454</v>
+      </c>
+      <c r="B462" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>455</v>
+      </c>
+      <c r="B463" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>456</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>457</v>
+      </c>
+      <c r="B465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>2</v>
+      </c>
+      <c r="B466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>458</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B468">
+    <sortCondition ref="B3:B468"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F8D41-1EFC-4453-94D0-07F838993A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB96E1B-986E-464F-8B85-FC60A60ED638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="473">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Irrigation From Storage</t>
   </si>
   <si>
-    <t>Irrigation - Ground Water</t>
-  </si>
-  <si>
     <t>Irrigation and Incidental Underground Storage</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Irrigation and Storage (an appropriation approved for both uses)</t>
   </si>
   <si>
-    <t>Irrigation - Surface Water</t>
-  </si>
-  <si>
     <t>Nursery</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>Industrial From Storage</t>
   </si>
   <si>
-    <t>Industrial - Ground Water</t>
-  </si>
-  <si>
     <t>Industrial/Manufacturing Uses</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
     <t>Industrial Storage</t>
   </si>
   <si>
-    <t>Industrial - Surface Water</t>
-  </si>
-  <si>
     <t>Industrial Use</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t>Domestic general</t>
   </si>
   <si>
-    <t>Domestic - Ground Water</t>
-  </si>
-  <si>
     <t>Domestic Including Lawn and Garden</t>
   </si>
   <si>
@@ -467,9 +452,6 @@
     <t>Domestic Supply</t>
   </si>
   <si>
-    <t>Domestic - Surface Water</t>
-  </si>
-  <si>
     <t>Domestic Use</t>
   </si>
   <si>
@@ -764,9 +746,6 @@
     <t>Stockpond</t>
   </si>
   <si>
-    <t>Coal Bed Methane - Ground Water</t>
-  </si>
-  <si>
     <t>Mining</t>
   </si>
   <si>
@@ -1106,12 +1085,6 @@
     <t>Municipal From Storage</t>
   </si>
   <si>
-    <t>Municipal - Ground Water</t>
-  </si>
-  <si>
-    <t>Municipal - Surface Water</t>
-  </si>
-  <si>
     <t>Municipal Use</t>
   </si>
   <si>
@@ -1361,9 +1334,6 @@
     <t>Military</t>
   </si>
   <si>
-    <t>Miscellaneous - Ground Water</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -1439,31 +1409,49 @@
     <t>Withdrawal of Water</t>
   </si>
   <si>
-    <t>Cathodic Protection</t>
-  </si>
-  <si>
-    <t>Sparging</t>
-  </si>
-  <si>
-    <t>Vapor Extraction</t>
-  </si>
-  <si>
-    <t>Water Supply Domestic</t>
-  </si>
-  <si>
-    <t>Water Supply Industrial</t>
-  </si>
-  <si>
-    <t>Water Supply Irrigation - Agriculture</t>
-  </si>
-  <si>
-    <t>Water Supply Irrigation - Landscape</t>
-  </si>
-  <si>
-    <t>Water Supply Public</t>
-  </si>
-  <si>
-    <t>Water Supply Stock or Animal Watering</t>
+    <t>Instream Flowonly State Of Wyo Can Apply</t>
+  </si>
+  <si>
+    <t>Maintenance (Equipment Washing)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Surface Water</t>
+  </si>
+  <si>
+    <t>Monitor Observation</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Coal Bed Methane Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Surface Water</t>
+  </si>
+  <si>
+    <t>Industrial Ground Water</t>
+  </si>
+  <si>
+    <t>Industrial Surface Water</t>
+  </si>
+  <si>
+    <t>Irrigation Ground Water</t>
+  </si>
+  <si>
+    <t>Irrigation Surface Water</t>
+  </si>
+  <si>
+    <t>Miscellaneous Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Surface Water</t>
   </si>
 </sst>
 </file>
@@ -2304,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B468"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="I418" sqref="I418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2331,119 +2319,119 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2451,7 +2439,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2459,7 +2447,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2467,7 +2455,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2475,7 +2463,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2483,7 +2471,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2491,7 +2479,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2499,1207 +2487,1207 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>465</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>465</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>469</v>
+        <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>472</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="B145" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B157" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>157</v>
+        <v>408</v>
       </c>
       <c r="B164" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>411</v>
       </c>
       <c r="B166" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="B167" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>369</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B171" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B174" t="s">
         <v>166</v>
@@ -3707,7 +3695,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B175" t="s">
         <v>166</v>
@@ -3715,7 +3703,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
         <v>166</v>
@@ -3723,7 +3711,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
         <v>166</v>
@@ -3731,2079 +3719,2079 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B183" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="B186" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="B190" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B191" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>467</v>
       </c>
       <c r="B192" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B193" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="B194" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="B195" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="B196" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="B197" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="B204" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>468</v>
       </c>
       <c r="B214" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B216" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
       <c r="B217" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B221" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="B222" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B223" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B224" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="B226" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="B227" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>222</v>
+        <v>372</v>
       </c>
       <c r="B228" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="B229" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>398</v>
       </c>
       <c r="B230" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="B232" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="B235" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="B237" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>231</v>
+        <v>432</v>
       </c>
       <c r="B238" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="B239" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
         <v>237</v>
-      </c>
-      <c r="B241" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B242" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B243" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="B249" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>470</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B252" t="s">
-        <v>244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="B254" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="B256" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>249</v>
+        <v>461</v>
       </c>
       <c r="B258" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="B259" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="B260" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="B261" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="B262" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="B264" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="B265" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="B266" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="B267" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="B268" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>349</v>
+      </c>
+      <c r="B269" t="s">
         <v>262</v>
-      </c>
-      <c r="B269" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="B270" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B271" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>472</v>
       </c>
       <c r="B272" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="B273" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="B274" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="B275" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B276" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="B277" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>271</v>
+        <v>434</v>
       </c>
       <c r="B278" t="s">
-        <v>256</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>270</v>
+        <v>439</v>
       </c>
       <c r="B279" t="s">
-        <v>256</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="B280" t="s">
-        <v>256</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>273</v>
+        <v>435</v>
       </c>
       <c r="B281" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>323</v>
+        <v>438</v>
       </c>
       <c r="B282" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="B283" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="B284" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="B285" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="B286" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B287" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B288" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="B289" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B290" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B291" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="B292" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="B294" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="B295" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="B296" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="B297" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="B298" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="B301" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B302" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="B303" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>461</v>
+        <v>108</v>
       </c>
       <c r="B304" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>295</v>
+        <v>51</v>
       </c>
       <c r="B305" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B306" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B307" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B308" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="B309" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="B310" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="B311" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="B312" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="B313" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="B315" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="B316" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="B317" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="B318" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="B319" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="B320" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="B321" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="B322" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="B323" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>173</v>
       </c>
       <c r="B324" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="B325" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="B326" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="B327" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="B328" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="B329" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B330" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="B331" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="B332" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B333" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B334" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="B335" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>326</v>
+        <v>112</v>
       </c>
       <c r="B336" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>327</v>
+        <v>113</v>
       </c>
       <c r="B337" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="B338" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="B339" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>330</v>
+        <v>114</v>
       </c>
       <c r="B340" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="B341" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="B342" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="B343" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="B344" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B345" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B346" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B347" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="B348" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>341</v>
+        <v>115</v>
       </c>
       <c r="B349" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B350" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="B351" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="B352" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="B353" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="B354" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="B355" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="B356" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>348</v>
+        <v>455</v>
       </c>
       <c r="B357" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="B358" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="B359" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="B360" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B361" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B362" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>373</v>
+        <v>117</v>
       </c>
       <c r="B363" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="B364" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="B365" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B366" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="B367" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>358</v>
+        <v>121</v>
       </c>
       <c r="B368" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="B369" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="B370" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="B371" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B372" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="B373" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="B374" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="B375" t="s">
-        <v>269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B376" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="B377" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="B378" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="B379" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="B380" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="B381" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>371</v>
+        <v>236</v>
       </c>
       <c r="B382" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="B383" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="B384" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
       <c r="B385" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="B386" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="B387" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="B388" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>388</v>
+      </c>
+      <c r="B392" t="s">
         <v>382</v>
-      </c>
-      <c r="B392" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="B393" t="s">
-        <v>380</v>
+        <v>53</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B394" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>386</v>
+        <v>212</v>
       </c>
       <c r="B396" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>387</v>
+        <v>213</v>
       </c>
       <c r="B397" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>383</v>
+        <v>214</v>
       </c>
       <c r="B398" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B399" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="B400" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="B401" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="B402" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="B403" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B404" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B405" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B406" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="B407" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="B408" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="B409" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="B410" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B411" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="B412" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="B413" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B414" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>406</v>
+        <v>183</v>
       </c>
       <c r="B415" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="B416" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B417" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B418" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B419" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B420" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B421" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="B422" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="B423" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="B424" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="B425" t="s">
-        <v>412</v>
+        <v>53</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>420</v>
+        <v>164</v>
       </c>
       <c r="B426" t="s">
-        <v>412</v>
+        <v>160</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B427" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B428" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>423</v>
+        <v>326</v>
       </c>
       <c r="B429" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="B430" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>424</v>
+        <v>122</v>
       </c>
       <c r="B431" t="s">
-        <v>412</v>
+        <v>73</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B432" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B433" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B434" t="s">
-        <v>428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B436" t="s">
-        <v>428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -5811,47 +5799,47 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
       <c r="B438" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="B439" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="B440" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B441" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
       <c r="B442" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -5859,201 +5847,169 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B444" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
       <c r="B445" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="B446" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="B447" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
       <c r="B448" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="B449" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="B450" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
       <c r="B451" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="B452" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="B453" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="B454" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="B455" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>446</v>
+        <v>217</v>
       </c>
       <c r="B456" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="B457" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="B458" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>451</v>
+        <v>341</v>
       </c>
       <c r="B459" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>452</v>
+        <v>342</v>
       </c>
       <c r="B460" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="B461" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>454</v>
+        <v>344</v>
       </c>
       <c r="B462" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="B463" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B464" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>457</v>
-      </c>
-      <c r="B465" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>2</v>
-      </c>
-      <c r="B466" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>458</v>
-      </c>
-      <c r="B467" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>467</v>
-      </c>
-      <c r="B468" t="s">
         <v>2</v>
       </c>
     </row>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB96E1B-986E-464F-8B85-FC60A60ED638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5573E5D-83F3-412D-B82A-727001591712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="495">
   <si>
     <t>Name</t>
   </si>
@@ -1452,6 +1452,72 @@
   </si>
   <si>
     <t>Municipal Surface Water</t>
+  </si>
+  <si>
+    <t>Cathodic Protection</t>
+  </si>
+  <si>
+    <t>Dewatering (Over 90 Days)</t>
+  </si>
+  <si>
+    <t>Ground Heat Exchanger well - Closed Loop Heat Pump well</t>
+  </si>
+  <si>
+    <t>Heat Pump well - Open Loop Heat Pump Well</t>
+  </si>
+  <si>
+    <t>Monitoring (Ground Water Quality)</t>
+  </si>
+  <si>
+    <t>Observation (Ground Water Levels)</t>
+  </si>
+  <si>
+    <t>Pit (excavation)</t>
+  </si>
+  <si>
+    <t>Sparging</t>
+  </si>
+  <si>
+    <t>Vapor Extraction</t>
+  </si>
+  <si>
+    <t>Water Supply Domestic</t>
+  </si>
+  <si>
+    <t>Water Supply Industrial</t>
+  </si>
+  <si>
+    <t>Water Supply Irrigation - Agriculture</t>
+  </si>
+  <si>
+    <t>Water Supply Irrigation - Landscape</t>
+  </si>
+  <si>
+    <t>Water Supply Public</t>
+  </si>
+  <si>
+    <t>Water Supply Stock or Animal Watering</t>
+  </si>
+  <si>
+    <t>Agricultural Irrigation</t>
+  </si>
+  <si>
+    <t>Heating/Cooling</t>
+  </si>
+  <si>
+    <t>Industrial Processing</t>
+  </si>
+  <si>
+    <t>Non-Crop Irrigation</t>
+  </si>
+  <si>
+    <t>Special Categories</t>
+  </si>
+  <si>
+    <t>Water Level Maintenance</t>
+  </si>
+  <si>
+    <t>Water Supply</t>
   </si>
 </sst>
 </file>
@@ -2292,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,7 +2513,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2455,7 +2521,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2463,7 +2529,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -2471,7 +2537,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -2479,7 +2545,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2487,95 +2553,95 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>422</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>424</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2583,7 +2649,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2591,23 +2657,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>426</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -2615,7 +2681,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
@@ -2623,95 +2689,95 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>473</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
@@ -2719,7 +2785,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -2727,7 +2793,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -2735,7 +2801,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
@@ -2743,7 +2809,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -2751,71 +2817,71 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>405</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>406</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s">
         <v>403</v>
@@ -2823,135 +2889,135 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>449</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>450</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s">
         <v>267</v>
@@ -2959,39 +3025,39 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>124</v>
@@ -2999,7 +3065,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
@@ -3007,7 +3073,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
         <v>124</v>
@@ -3015,7 +3081,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>124</v>
@@ -3023,7 +3089,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>464</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
         <v>124</v>
@@ -3031,7 +3097,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
         <v>124</v>
@@ -3039,7 +3105,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
         <v>124</v>
@@ -3047,7 +3113,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
         <v>124</v>
@@ -3055,7 +3121,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="B95" t="s">
         <v>124</v>
@@ -3063,15 +3129,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>124</v>
@@ -3079,7 +3145,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>124</v>
@@ -3087,7 +3153,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
         <v>124</v>
@@ -3095,39 +3161,39 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
         <v>267</v>
@@ -3135,7 +3201,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
         <v>267</v>
@@ -3143,7 +3209,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
         <v>267</v>
@@ -3151,7 +3217,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
         <v>267</v>
@@ -3159,7 +3225,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B108" t="s">
         <v>267</v>
@@ -3167,7 +3233,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
         <v>267</v>
@@ -3175,7 +3241,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B110" t="s">
         <v>267</v>
@@ -3183,7 +3249,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
         <v>267</v>
@@ -3191,15 +3257,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
         <v>267</v>
@@ -3207,7 +3273,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B114" t="s">
         <v>267</v>
@@ -3215,47 +3281,47 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
         <v>154</v>
@@ -3263,7 +3329,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
         <v>154</v>
@@ -3271,15 +3337,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
         <v>185</v>
@@ -3287,23 +3353,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
         <v>185</v>
@@ -3311,39 +3377,39 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
         <v>37</v>
@@ -3351,7 +3417,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -3359,7 +3425,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
         <v>37</v>
@@ -3367,7 +3433,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -3375,7 +3441,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
         <v>37</v>
@@ -3383,7 +3449,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
         <v>37</v>
@@ -3391,47 +3457,47 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B142" t="s">
         <v>267</v>
@@ -3439,7 +3505,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B143" t="s">
         <v>267</v>
@@ -3447,7 +3513,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B144" t="s">
         <v>267</v>
@@ -3455,15 +3521,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>452</v>
+        <v>293</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B146" t="s">
         <v>267</v>
@@ -3471,7 +3537,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
         <v>267</v>
@@ -3479,39 +3545,39 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>452</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
         <v>160</v>
@@ -3519,63 +3585,63 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>380</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>371</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>59</v>
+        <v>380</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>475</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B160" t="s">
         <v>53</v>
@@ -3583,7 +3649,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B161" t="s">
         <v>53</v>
@@ -3591,231 +3657,231 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B162" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>408</v>
+        <v>54</v>
       </c>
       <c r="B164" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="B165" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>411</v>
+        <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="B167" t="s">
-        <v>403</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="B169" t="s">
-        <v>73</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>403</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="B171" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>142</v>
+        <v>476</v>
       </c>
       <c r="B172" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="B177" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="B178" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>431</v>
+        <v>142</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B182" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="B185" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="B186" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B189" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>466</v>
+        <v>88</v>
       </c>
       <c r="B190" t="s">
         <v>73</v>
@@ -3823,7 +3889,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B191" t="s">
         <v>73</v>
@@ -3831,7 +3897,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="B192" t="s">
         <v>73</v>
@@ -3839,7 +3905,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="B193" t="s">
         <v>73</v>
@@ -3847,7 +3913,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B194" t="s">
         <v>73</v>
@@ -3855,151 +3921,151 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>255</v>
+        <v>466</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="B198" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>49</v>
+        <v>467</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>63</v>
       </c>
       <c r="B203" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>458</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -4007,7 +4073,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -4015,7 +4081,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -4023,15 +4089,15 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>469</v>
+        <v>26</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -4039,7 +4105,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -4047,7 +4113,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -4055,231 +4121,231 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B220" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B221" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>468</v>
       </c>
       <c r="B222" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="B225" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>459</v>
+        <v>202</v>
       </c>
       <c r="B229" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="B230" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="B231" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="B232" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="B235" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>102</v>
+        <v>459</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="B243" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>432</v>
       </c>
       <c r="B246" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="B247" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B248" t="s">
         <v>237</v>
@@ -4287,7 +4353,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>237</v>
@@ -4295,103 +4361,103 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>470</v>
+        <v>204</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>460</v>
+        <v>237</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="B253" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="B254" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="B255" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="B256" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="B257" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>461</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>305</v>
+        <v>470</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>66</v>
+        <v>460</v>
       </c>
       <c r="B260" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B262" t="s">
         <v>267</v>
@@ -4399,63 +4465,63 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="B263" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B264" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="B266" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="B268" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="B269" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="B270" t="s">
         <v>262</v>
@@ -4463,39 +4529,39 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="B271" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>472</v>
+        <v>146</v>
       </c>
       <c r="B272" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="B273" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="B274" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B275" t="s">
         <v>124</v>
@@ -4503,71 +4569,71 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="B276" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="B277" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="B278" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="B279" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>437</v>
+        <v>259</v>
       </c>
       <c r="B280" t="s">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="B282" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="B283" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B284" t="s">
         <v>124</v>
@@ -4575,207 +4641,207 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B285" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="B286" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="B287" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>265</v>
+        <v>439</v>
       </c>
       <c r="B288" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>437</v>
       </c>
       <c r="B289" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>308</v>
+        <v>435</v>
       </c>
       <c r="B290" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="B291" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>433</v>
+        <v>150</v>
       </c>
       <c r="B292" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="B293" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B295" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="B296" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="B297" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="B298" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="B299" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>106</v>
+        <v>308</v>
       </c>
       <c r="B300" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="B302" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="B303" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B304" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="B306" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="B307" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="B308" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="B309" t="s">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B310" t="s">
         <v>73</v>
@@ -4783,223 +4849,223 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="B311" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="B312" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B313" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="B314" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="B315" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>352</v>
+        <v>51</v>
       </c>
       <c r="B316" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="B317" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>170</v>
+        <v>313</v>
       </c>
       <c r="B318" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="B319" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="B320" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="B321" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>176</v>
+        <v>479</v>
       </c>
       <c r="B322" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>171</v>
+        <v>454</v>
       </c>
       <c r="B323" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B324" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="B325" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="B326" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="B327" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="B329" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="B330" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="B331" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="B332" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="B333" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>355</v>
+        <v>176</v>
       </c>
       <c r="B334" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="B335" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B336" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="B337" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B338" t="s">
         <v>166</v>
@@ -5007,87 +5073,87 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B339" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B340" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="B341" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B342" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="B343" t="s">
-        <v>371</v>
+        <v>249</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="B344" t="s">
-        <v>371</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B346" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B347" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>374</v>
+        <v>112</v>
       </c>
       <c r="B348" t="s">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B349" t="s">
         <v>73</v>
@@ -5095,119 +5161,119 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>317</v>
+        <v>179</v>
       </c>
       <c r="B350" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B351" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="B352" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>385</v>
+        <v>70</v>
       </c>
       <c r="B353" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="B354" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="B355" t="s">
-        <v>124</v>
+        <v>371</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="B356" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="B357" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="B358" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="B359" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="B360" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="B361" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="B362" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B363" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B364" t="s">
         <v>267</v>
@@ -5215,95 +5281,95 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="B365" t="s">
-        <v>73</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="B366" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="B367" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>121</v>
+        <v>418</v>
       </c>
       <c r="B368" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="B369" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="B370" t="s">
-        <v>419</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="B371" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>360</v>
+        <v>116</v>
       </c>
       <c r="B372" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="B373" t="s">
-        <v>400</v>
+        <v>262</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="B374" t="s">
-        <v>400</v>
+        <v>262</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="B375" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B376" t="s">
         <v>267</v>
@@ -5311,367 +5377,367 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="B377" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="B378" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B379" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="B380" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="B381" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="B382" t="s">
-        <v>220</v>
+        <v>419</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="B383" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="B384" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="B385" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>235</v>
+        <v>401</v>
       </c>
       <c r="B386" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>234</v>
+        <v>480</v>
       </c>
       <c r="B387" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>392</v>
+        <v>492</v>
       </c>
       <c r="B388" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="B389" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="B390" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="B391" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="B392" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="B393" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="B394" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="B395" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B396" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B397" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B398" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="B399" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="B401" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B403" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B406" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B407" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B408" t="s">
-        <v>267</v>
+        <v>382</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="B409" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>415</v>
+        <v>213</v>
       </c>
       <c r="B411" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>181</v>
+        <v>394</v>
       </c>
       <c r="B413" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="B414" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="B415" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="B416" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="B417" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B418" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B419" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="B420" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>417</v>
+        <v>52</v>
       </c>
       <c r="B421" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B422" t="s">
         <v>267</v>
@@ -5679,127 +5745,127 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="B423" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>325</v>
+        <v>34</v>
       </c>
       <c r="B424" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="B425" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B426" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>441</v>
+        <v>181</v>
       </c>
       <c r="B427" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="B428" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="B429" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="B430" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>122</v>
+        <v>395</v>
       </c>
       <c r="B431" t="s">
-        <v>73</v>
+        <v>382</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="B432" t="s">
-        <v>2</v>
+        <v>382</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="B433" t="s">
-        <v>2</v>
+        <v>382</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>371</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="B435" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>447</v>
+        <v>323</v>
       </c>
       <c r="B436" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="B437" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B438" t="s">
         <v>267</v>
@@ -5807,111 +5873,111 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
       <c r="B439" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="B440" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>448</v>
+        <v>326</v>
       </c>
       <c r="B443" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="B444" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="B445" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B446" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="B447" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="B448" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="B449" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="B450" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="B451" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B452" t="s">
         <v>267</v>
@@ -5919,71 +5985,71 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="B453" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B454" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="B455" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="B456" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="B457" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="B458" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="B459" t="s">
-        <v>267</v>
+        <v>419</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="B460" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B461" t="s">
         <v>267</v>
@@ -5991,7 +6057,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B462" t="s">
         <v>267</v>
@@ -5999,17 +6065,201 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="B463" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
+        <v>334</v>
+      </c>
+      <c r="B464" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>335</v>
+      </c>
+      <c r="B465" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>368</v>
+      </c>
+      <c r="B466" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>494</v>
+      </c>
+      <c r="B467" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>482</v>
+      </c>
+      <c r="B468" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>483</v>
+      </c>
+      <c r="B469" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>484</v>
+      </c>
+      <c r="B470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>485</v>
+      </c>
+      <c r="B471" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>486</v>
+      </c>
+      <c r="B472" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>487</v>
+      </c>
+      <c r="B473" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>330</v>
+      </c>
+      <c r="B474" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>336</v>
+      </c>
+      <c r="B475" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>337</v>
+      </c>
+      <c r="B476" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>338</v>
+      </c>
+      <c r="B477" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>216</v>
+      </c>
+      <c r="B478" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>217</v>
+      </c>
+      <c r="B479" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>339</v>
+      </c>
+      <c r="B480" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>340</v>
+      </c>
+      <c r="B481" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>341</v>
+      </c>
+      <c r="B482" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>342</v>
+      </c>
+      <c r="B483" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>343</v>
+      </c>
+      <c r="B484" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>344</v>
+      </c>
+      <c r="B485" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>218</v>
+      </c>
+      <c r="B486" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>457</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B487" t="s">
         <v>2</v>
       </c>
     </row>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5573E5D-83F3-412D-B82A-727001591712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC294FB-1BF7-4D3A-B675-F925BF012394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="495">
   <si>
     <t>Name</t>
   </si>
@@ -2358,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
@@ -2985,18 +2985,18 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3577,7 +3577,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
         <v>160</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
         <v>160</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
         <v>160</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B298" t="s">
         <v>267</v>
@@ -4753,34 +4753,34 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="B299" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>308</v>
+        <v>491</v>
       </c>
       <c r="B300" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>311</v>
+        <v>433</v>
       </c>
       <c r="B301" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>433</v>
+        <v>308</v>
       </c>
       <c r="B302" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5577,7 +5577,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B402" t="s">
         <v>382</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B403" t="s">
         <v>382</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B404" t="s">
         <v>382</v>
@@ -5601,15 +5601,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="B405" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B406" t="s">
         <v>382</v>
@@ -5617,15 +5617,15 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="B407" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B408" t="s">
         <v>382</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>35</v>
+        <v>415</v>
       </c>
       <c r="B426" t="s">
         <v>4</v>
@@ -5777,31 +5777,31 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B427" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="B428" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="B429" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B430" t="s">
         <v>166</v>
@@ -5809,15 +5809,15 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="B431" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B432" t="s">
         <v>382</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" t="s">
         <v>382</v>
@@ -5833,31 +5833,31 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B434" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="B435" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="B436" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B437" t="s">
         <v>267</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B438" t="s">
         <v>267</v>
@@ -5873,31 +5873,31 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>456</v>
+        <v>325</v>
       </c>
       <c r="B439" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="B440" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="B441" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" t="s">
         <v>2</v>
@@ -5905,15 +5905,15 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B444" t="s">
         <v>267</v>
@@ -5921,23 +5921,23 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="B445" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>443</v>
+        <v>122</v>
       </c>
       <c r="B446" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5977,23 +5977,23 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="B452" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B453" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B454" t="s">
         <v>262</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B455" t="s">
         <v>262</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B456" t="s">
         <v>262</v>
@@ -6017,47 +6017,47 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="B457" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="B458" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="B459" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="B460" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="B461" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B462" t="s">
         <v>267</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B463" t="s">
         <v>267</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B464" t="s">
         <v>267</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B465" t="s">
         <v>267</v>
@@ -6089,15 +6089,15 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B466" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="B467" t="s">
         <v>262</v>
@@ -6105,63 +6105,63 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B468" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B469" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B470" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B471" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B472" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B473" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="B474" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B475" t="s">
         <v>267</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B476" t="s">
         <v>267</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B477" t="s">
         <v>267</v>
@@ -6185,15 +6185,15 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="B478" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B479" t="s">
         <v>185</v>
@@ -6201,15 +6201,15 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="B480" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B481" t="s">
         <v>267</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B482" t="s">
         <v>267</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B483" t="s">
         <v>267</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B484" t="s">
         <v>267</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B485" t="s">
         <v>267</v>
@@ -6249,23 +6249,31 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="B486" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
+        <v>218</v>
+      </c>
+      <c r="B487" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>457</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B488" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B468">
-    <sortCondition ref="B3:B468"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B488">
+    <sortCondition ref="A3:A488"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC294FB-1BF7-4D3A-B675-F925BF012394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166648B-9B50-43A8-89FF-7F46DE774650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="496">
   <si>
     <t>Name</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>Water Supply</t>
+  </si>
+  <si>
+    <t>Stream Gage</t>
   </si>
 </sst>
 </file>
@@ -2062,9 +2065,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2102,7 +2105,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2208,7 +2211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2350,7 +2353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2358,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="A489" sqref="A3:XFD489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5657,63 +5660,63 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>214</v>
+        <v>495</v>
       </c>
       <c r="B412" t="s">
-        <v>185</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="B413" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="B415" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>362</v>
+        <v>32</v>
       </c>
       <c r="B417" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B418" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B419" t="s">
         <v>403</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B420" t="s">
         <v>403</v>
@@ -5729,31 +5732,31 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="B421" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="B422" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="B423" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B424" t="s">
         <v>4</v>
@@ -5761,10 +5764,10 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>415</v>
+        <v>34</v>
       </c>
       <c r="B425" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5772,12 +5775,12 @@
         <v>415</v>
       </c>
       <c r="B426" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>35</v>
+        <v>415</v>
       </c>
       <c r="B427" t="s">
         <v>4</v>
@@ -5785,31 +5788,31 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B428" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="B429" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="B430" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B431" t="s">
         <v>166</v>
@@ -5817,15 +5820,15 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="B432" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B433" t="s">
         <v>382</v>
@@ -5833,7 +5836,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" t="s">
         <v>382</v>
@@ -5841,31 +5844,31 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B435" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="B436" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="B437" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B438" t="s">
         <v>267</v>
@@ -5873,7 +5876,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B439" t="s">
         <v>267</v>
@@ -5881,31 +5884,31 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>456</v>
+        <v>325</v>
       </c>
       <c r="B440" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="B441" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="B442" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>2</v>
@@ -5913,15 +5916,15 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B445" t="s">
         <v>267</v>
@@ -5929,23 +5932,23 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="B446" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>122</v>
       </c>
       <c r="B447" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B448" t="s">
         <v>2</v>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -5985,23 +5988,23 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B454" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B455" t="s">
         <v>262</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B456" t="s">
         <v>262</v>
@@ -6017,7 +6020,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B457" t="s">
         <v>262</v>
@@ -6025,47 +6028,47 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="B458" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="B459" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="B460" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="B461" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="B462" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B463" t="s">
         <v>267</v>
@@ -6073,7 +6076,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B464" t="s">
         <v>267</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B465" t="s">
         <v>267</v>
@@ -6089,7 +6092,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B466" t="s">
         <v>267</v>
@@ -6097,15 +6100,15 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B467" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="B468" t="s">
         <v>262</v>
@@ -6113,63 +6116,63 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B469" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B470" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B471" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B472" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B473" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B474" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="B475" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B476" t="s">
         <v>267</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B477" t="s">
         <v>267</v>
@@ -6185,7 +6188,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B478" t="s">
         <v>267</v>
@@ -6193,15 +6196,15 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="B479" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B480" t="s">
         <v>185</v>
@@ -6209,15 +6212,15 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="B481" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B482" t="s">
         <v>267</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B483" t="s">
         <v>267</v>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B484" t="s">
         <v>267</v>
@@ -6241,7 +6244,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B485" t="s">
         <v>267</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B486" t="s">
         <v>267</v>
@@ -6257,23 +6260,31 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="B487" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
+        <v>218</v>
+      </c>
+      <c r="B488" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>457</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B489" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B488">
-    <sortCondition ref="A3:A488"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B489">
+    <sortCondition ref="A3:A489"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3166648B-9B50-43A8-89FF-7F46DE774650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4997D9-791B-4C51-BAA7-B88C1B4AB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="497">
   <si>
     <t>Name</t>
   </si>
@@ -1521,6 +1521,9 @@
   </si>
   <si>
     <t>Stream Gage</t>
+  </si>
+  <si>
+    <t>Power (Geothermal)</t>
   </si>
 </sst>
 </file>
@@ -2065,9 +2068,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2105,7 +2108,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2211,7 +2214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2353,7 +2356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2361,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="A489" sqref="A3:XFD489"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="L489" sqref="L489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5020,15 +5023,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
       <c r="B332" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B333" t="s">
         <v>166</v>
@@ -5036,7 +5039,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B334" t="s">
         <v>166</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B335" t="s">
         <v>166</v>
@@ -5052,7 +5055,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B336" t="s">
         <v>166</v>
@@ -5060,7 +5063,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B337" t="s">
         <v>166</v>
@@ -5068,7 +5071,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B338" t="s">
         <v>166</v>
@@ -5076,15 +5079,15 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
@@ -5092,23 +5095,23 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="B341" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B343" t="s">
         <v>249</v>
@@ -5116,7 +5119,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B344" t="s">
         <v>249</v>
@@ -5124,15 +5127,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="B345" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B346" t="s">
         <v>262</v>
@@ -5140,7 +5143,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B347" t="s">
         <v>262</v>
@@ -5148,15 +5151,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="B348" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B349" t="s">
         <v>73</v>
@@ -5164,15 +5167,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="B350" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B351" t="s">
         <v>166</v>
@@ -5180,39 +5183,39 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="B352" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B353" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="B354" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="B355" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B356" t="s">
         <v>371</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B357" t="s">
         <v>371</v>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B358" t="s">
         <v>371</v>
@@ -5236,7 +5239,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B359" t="s">
         <v>371</v>
@@ -5244,7 +5247,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B360" t="s">
         <v>371</v>
@@ -5252,47 +5255,47 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="B361" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="B362" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="B363" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="B364" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="B365" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B366" t="s">
         <v>382</v>
@@ -5300,39 +5303,39 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
       <c r="B367" t="s">
-        <v>124</v>
+        <v>382</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B368" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="B369" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>210</v>
+        <v>455</v>
       </c>
       <c r="B370" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B371" t="s">
         <v>185</v>
@@ -5340,23 +5343,23 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="B373" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B374" t="s">
         <v>262</v>
@@ -5364,95 +5367,95 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="B375" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="B376" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="B377" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="B378" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="B379" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B380" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B381" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="B382" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="B383" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="B384" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="B385" t="s">
-        <v>400</v>
+        <v>262</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B386" t="s">
         <v>400</v>
@@ -5460,55 +5463,55 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="B387" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B388" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="B389" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="B390" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
       <c r="B391" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>227</v>
+        <v>462</v>
       </c>
       <c r="B392" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B393" t="s">
         <v>220</v>
@@ -5516,7 +5519,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B394" t="s">
         <v>220</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B395" t="s">
         <v>220</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B396" t="s">
         <v>220</v>
@@ -5540,7 +5543,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B397" t="s">
         <v>220</v>
@@ -5548,7 +5551,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B398" t="s">
         <v>220</v>
@@ -5556,7 +5559,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B399" t="s">
         <v>220</v>
@@ -5564,7 +5567,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B400" t="s">
         <v>220</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B401" t="s">
         <v>220</v>
@@ -5580,15 +5583,15 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="B402" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B403" t="s">
         <v>382</v>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B404" t="s">
         <v>382</v>
@@ -5604,23 +5607,23 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="B405" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>390</v>
+        <v>71</v>
       </c>
       <c r="B406" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B407" t="s">
         <v>382</v>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B408" t="s">
         <v>382</v>
@@ -5636,7 +5639,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B409" t="s">
         <v>382</v>
@@ -5644,15 +5647,15 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="B410" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B411" t="s">
         <v>185</v>
@@ -5660,71 +5663,71 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>495</v>
+        <v>213</v>
       </c>
       <c r="B412" t="s">
-        <v>495</v>
+        <v>185</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>214</v>
+        <v>495</v>
       </c>
       <c r="B413" t="s">
-        <v>185</v>
+        <v>495</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="B414" t="s">
-        <v>382</v>
+        <v>185</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="B415" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="B416" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>362</v>
+        <v>32</v>
       </c>
       <c r="B418" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B419" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B420" t="s">
         <v>403</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B421" t="s">
         <v>403</v>
@@ -5740,31 +5743,31 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="B422" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="B423" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="B424" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B425" t="s">
         <v>4</v>
@@ -5772,10 +5775,10 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>415</v>
+        <v>34</v>
       </c>
       <c r="B426" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5783,12 +5786,12 @@
         <v>415</v>
       </c>
       <c r="B427" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>35</v>
+        <v>415</v>
       </c>
       <c r="B428" t="s">
         <v>4</v>
@@ -5796,31 +5799,31 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B429" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="B430" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="B431" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B432" t="s">
         <v>166</v>
@@ -5828,15 +5831,15 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="B433" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B434" t="s">
         <v>382</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" t="s">
         <v>382</v>
@@ -5852,31 +5855,31 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B436" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="B437" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="B438" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B439" t="s">
         <v>267</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B440" t="s">
         <v>267</v>
@@ -5892,31 +5895,31 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>456</v>
+        <v>325</v>
       </c>
       <c r="B441" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="B442" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="B443" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -5924,15 +5927,15 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>326</v>
+        <v>442</v>
       </c>
       <c r="B445" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B446" t="s">
         <v>267</v>
@@ -5940,23 +5943,23 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="B447" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>443</v>
+        <v>122</v>
       </c>
       <c r="B448" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -5972,7 +5975,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5980,7 +5983,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -5988,7 +5991,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -5996,23 +5999,23 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="B454" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="B455" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B456" t="s">
         <v>262</v>
@@ -6020,7 +6023,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B457" t="s">
         <v>262</v>
@@ -6028,7 +6031,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B458" t="s">
         <v>262</v>
@@ -6036,47 +6039,47 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="B459" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="B460" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="B461" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="B462" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="B463" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B464" t="s">
         <v>267</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B465" t="s">
         <v>267</v>
@@ -6092,7 +6095,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B466" t="s">
         <v>267</v>
@@ -6100,7 +6103,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B467" t="s">
         <v>267</v>
@@ -6108,15 +6111,15 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="B468" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="B469" t="s">
         <v>262</v>
@@ -6124,63 +6127,63 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B470" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B477" t="s">
         <v>267</v>
@@ -6188,7 +6191,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B478" t="s">
         <v>267</v>
@@ -6196,7 +6199,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B479" t="s">
         <v>267</v>
@@ -6204,15 +6207,15 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="B480" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B481" t="s">
         <v>185</v>
@@ -6220,15 +6223,15 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="B482" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B483" t="s">
         <v>267</v>
@@ -6236,7 +6239,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B484" t="s">
         <v>267</v>
@@ -6244,7 +6247,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B485" t="s">
         <v>267</v>
@@ -6252,7 +6255,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B486" t="s">
         <v>267</v>
@@ -6260,7 +6263,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B487" t="s">
         <v>267</v>
@@ -6268,23 +6271,31 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="B488" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>218</v>
+      </c>
+      <c r="B489" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>457</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B490" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B489">
-    <sortCondition ref="A3:A489"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B490">
+    <sortCondition ref="A3:A490"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4997D9-791B-4C51-BAA7-B88C1B4AB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC14E8C-429F-41A9-8D9B-2C53EC28DA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="503">
   <si>
     <t>Name</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Commercial From Storage</t>
   </si>
   <si>
-    <t>Commercial Institutional</t>
-  </si>
-  <si>
     <t>Commercial (self-supplied)</t>
   </si>
   <si>
@@ -1524,6 +1521,27 @@
   </si>
   <si>
     <t>Power (Geothermal)</t>
+  </si>
+  <si>
+    <t>Commercial / Institutional</t>
+  </si>
+  <si>
+    <t>Non-Potable</t>
+  </si>
+  <si>
+    <t>Produced from Groundwater</t>
+  </si>
+  <si>
+    <t>Produced from Surface Water</t>
+  </si>
+  <si>
+    <t>Purchased from another PWS</t>
+  </si>
+  <si>
+    <t>Recycled</t>
+  </si>
+  <si>
+    <t>Sold to another PWS</t>
   </si>
 </sst>
 </file>
@@ -2068,9 +2086,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2108,7 +2126,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2214,7 +2232,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2356,7 +2374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2364,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="L489" sqref="L489"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,23 +2409,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
         <v>381</v>
-      </c>
-      <c r="B4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -2415,47 +2433,47 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -2463,42 +2481,42 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="s">
         <v>248</v>
-      </c>
-      <c r="B13" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2519,7 +2537,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2575,23 +2593,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" t="s">
         <v>402</v>
-      </c>
-      <c r="B26" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2599,23 +2617,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
         <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2631,10 +2649,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2647,7 +2665,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2655,7 +2673,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2663,7 +2681,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2671,10 +2689,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2703,15 +2721,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" t="s">
         <v>370</v>
-      </c>
-      <c r="B42" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2719,7 +2737,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2727,10 +2745,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2743,15 +2761,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2759,23 +2777,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -2799,7 +2817,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -2815,7 +2833,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -2823,7 +2841,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
@@ -2831,7 +2849,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -2847,10 +2865,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,7 +2889,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
@@ -2879,42 +2897,42 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2943,47 +2961,47 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
         <v>219</v>
-      </c>
-      <c r="B75" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
@@ -2991,15 +3009,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
@@ -3007,7 +3025,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
@@ -3015,23 +3033,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -3039,263 +3057,263 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B116" t="s">
         <v>73</v>
@@ -3303,114 +3321,114 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3495,154 +3513,154 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
         <v>159</v>
-      </c>
-      <c r="B154" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,10 +3721,10 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,55 +3737,55 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B169" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B170" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B171" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B172" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B173" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B175" t="s">
         <v>73</v>
@@ -3775,7 +3793,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B176" t="s">
         <v>73</v>
@@ -3783,79 +3801,79 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" t="s">
         <v>165</v>
-      </c>
-      <c r="B181" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -3871,10 +3889,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3887,7 +3905,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B190" t="s">
         <v>73</v>
@@ -3895,7 +3913,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B191" t="s">
         <v>73</v>
@@ -3903,7 +3921,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B192" t="s">
         <v>73</v>
@@ -3911,7 +3929,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B193" t="s">
         <v>73</v>
@@ -3919,7 +3937,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B194" t="s">
         <v>73</v>
@@ -3927,7 +3945,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B195" t="s">
         <v>73</v>
@@ -3935,7 +3953,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -3943,7 +3961,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B197" t="s">
         <v>73</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B198" t="s">
         <v>73</v>
@@ -3959,7 +3977,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
         <v>73</v>
@@ -3967,7 +3985,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B200" t="s">
         <v>73</v>
@@ -3975,7 +3993,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -3983,7 +4001,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B202" t="s">
         <v>73</v>
@@ -3999,34 +4017,34 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B206" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4039,26 +4057,26 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4143,7 +4161,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -4159,15 +4177,15 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B224" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -4191,7 +4209,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B228" t="s">
         <v>73</v>
@@ -4199,47 +4217,47 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B229" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B230" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B233" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B234" t="s">
         <v>73</v>
@@ -4247,47 +4265,47 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B235" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B236" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B238" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B239" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B240" t="s">
         <v>73</v>
@@ -4311,7 +4329,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B243" t="s">
         <v>73</v>
@@ -4319,7 +4337,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B244" t="s">
         <v>73</v>
@@ -4327,7 +4345,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B245" t="s">
         <v>73</v>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -4343,7 +4361,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B247" t="s">
         <v>73</v>
@@ -4351,95 +4369,95 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B250" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B251" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B257" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B258" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -4447,7 +4465,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -4455,34 +4473,34 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B263" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B264" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4495,7 +4513,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B266" t="s">
         <v>53</v>
@@ -4503,15 +4521,15 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B268" t="s">
         <v>53</v>
@@ -4527,143 +4545,143 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B272" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B274" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B275" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B276" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B277" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B278" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B279" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B280" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B281" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B282" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B283" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B284" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B285" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -4671,7 +4689,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -4679,7 +4697,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4687,7 +4705,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -4703,79 +4721,79 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B292" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B293" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B294" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B295" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B296" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B298" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -4783,15 +4801,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B302" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -4823,7 +4841,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B307" t="s">
         <v>53</v>
@@ -4839,7 +4857,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B309" t="s">
         <v>73</v>
@@ -4847,7 +4865,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B310" t="s">
         <v>73</v>
@@ -4855,7 +4873,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B311" t="s">
         <v>73</v>
@@ -4863,7 +4881,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
@@ -4871,23 +4889,23 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B313" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B314" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B315" t="s">
         <v>73</v>
@@ -4903,39 +4921,39 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B320" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B321" t="s">
         <v>73</v>
@@ -4943,15 +4961,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B322" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B323" t="s">
         <v>2</v>
@@ -4959,47 +4977,47 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B324" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B325" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B326" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B327" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B328" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B329" t="s">
         <v>73</v>
@@ -5007,82 +5025,82 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B330" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B331" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B332" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B333" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B334" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B335" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B336" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B337" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B338" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B339" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -5103,63 +5121,63 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B343" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B344" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B345" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B346" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B347" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B348" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B349" t="s">
         <v>73</v>
@@ -5167,7 +5185,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B350" t="s">
         <v>73</v>
@@ -5175,23 +5193,23 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B351" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B352" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B353" t="s">
         <v>73</v>
@@ -5207,63 +5225,63 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B355" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B356" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B357" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B358" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B359" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B360" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B361" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B362" t="s">
         <v>73</v>
@@ -5271,63 +5289,63 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B363" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B364" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B365" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B366" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B367" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B368" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
+        <v>417</v>
+      </c>
+      <c r="B369" t="s">
         <v>418</v>
-      </c>
-      <c r="B369" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B370" t="s">
         <v>73</v>
@@ -5335,23 +5353,23 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B371" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B372" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B373" t="s">
         <v>73</v>
@@ -5359,23 +5377,23 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B374" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B375" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B376" t="s">
         <v>73</v>
@@ -5383,15 +5401,15 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B377" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B378" t="s">
         <v>73</v>
@@ -5399,23 +5417,23 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B379" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B380" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B381" t="s">
         <v>73</v>
@@ -5423,23 +5441,23 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B382" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B383" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B384" t="s">
         <v>73</v>
@@ -5447,31 +5465,31 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B385" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>398</v>
+      </c>
+      <c r="B386" t="s">
         <v>399</v>
-      </c>
-      <c r="B386" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B387" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B388" t="s">
         <v>73</v>
@@ -5479,15 +5497,15 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B389" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
@@ -5495,122 +5513,122 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B391" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B392" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B393" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B394" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B395" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B396" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B397" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B398" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B399" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B400" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B401" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B402" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B404" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B405" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -5623,74 +5641,74 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B407" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B408" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B409" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B410" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B411" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B412" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B413" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B414" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B415" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5703,10 +5721,10 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B417" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5719,34 +5737,34 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B419" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B420" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B421" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B422" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5759,10 +5777,10 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B424" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5783,15 +5801,15 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B427" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B428" t="s">
         <v>4</v>
@@ -5807,103 +5825,103 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B430" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B431" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B432" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B433" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B434" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B435" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B436" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B437" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B438" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B439" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B440" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B441" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B442" t="s">
         <v>53</v>
@@ -5911,15 +5929,15 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B443" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B444" t="s">
         <v>2</v>
@@ -5927,7 +5945,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -5935,23 +5953,23 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B446" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B447" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B448" t="s">
         <v>73</v>
@@ -5959,7 +5977,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5967,7 +5985,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B450" t="s">
         <v>2</v>
@@ -5975,7 +5993,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5983,7 +6001,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -5991,7 +6009,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -6007,47 +6025,47 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B455" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B456" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B457" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B458" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B459" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B460" t="s">
         <v>73</v>
@@ -6055,7 +6073,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B461" t="s">
         <v>2</v>
@@ -6063,87 +6081,87 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B462" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B463" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B464" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B465" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B466" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B467" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B468" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B469" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B470" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B471" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B472" t="s">
         <v>73</v>
@@ -6151,7 +6169,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B473" t="s">
         <v>4</v>
@@ -6159,138 +6177,186 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B474" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B475" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B476" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B477" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B478" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B479" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B480" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B481" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B482" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B483" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B484" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B485" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B486" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B487" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B488" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B489" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B490" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>497</v>
+      </c>
+      <c r="B491" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>498</v>
+      </c>
+      <c r="B492" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>499</v>
+      </c>
+      <c r="B493" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>500</v>
+      </c>
+      <c r="B494" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>501</v>
+      </c>
+      <c r="B495" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>502</v>
+      </c>
+      <c r="B496" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC14E8C-429F-41A9-8D9B-2C53EC28DA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4EFD2-1AA9-4BC3-81B3-489EB864BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="514">
   <si>
     <t>Name</t>
   </si>
@@ -1160,9 +1160,6 @@
     <t>Recreation - beautification</t>
   </si>
   <si>
-    <t>Recreation Fish Wildlife</t>
-  </si>
-  <si>
     <t>Recreation From Storage</t>
   </si>
   <si>
@@ -1542,6 +1539,42 @@
   </si>
   <si>
     <t>Sold to another PWS</t>
+  </si>
+  <si>
+    <t>In Stream Hydroelectric Water Use</t>
+  </si>
+  <si>
+    <t>Off Stream Hydroelectric Power Production</t>
+  </si>
+  <si>
+    <t>Other Self Supply</t>
+  </si>
+  <si>
+    <t>Self Supply Commercial and Institutional</t>
+  </si>
+  <si>
+    <t>Self Supply Industrial</t>
+  </si>
+  <si>
+    <t>Self Supply Irrigation</t>
+  </si>
+  <si>
+    <t>Self Supply Livestock</t>
+  </si>
+  <si>
+    <t>Self Supply Thermoelectric Power Production Once Through Cooling</t>
+  </si>
+  <si>
+    <t>Self Supply Thermoelectric Power Production Recirculated Cooling</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Recreation Fish &amp; Wildlife</t>
   </si>
 </sst>
 </file>
@@ -2382,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="B484" sqref="B484"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="I361" sqref="I361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,10 +2450,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="s">
         <v>380</v>
-      </c>
-      <c r="B4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2570,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2593,10 +2626,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" t="s">
         <v>401</v>
-      </c>
-      <c r="B26" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2642,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2633,7 +2666,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2665,7 +2698,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2673,7 +2706,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2681,7 +2714,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2729,7 +2762,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2737,7 +2770,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2769,7 +2802,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2777,7 +2810,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s">
         <v>236</v>
@@ -2793,7 +2826,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -2825,7 +2858,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
@@ -2833,7 +2866,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -2905,34 +2938,34 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +3034,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
@@ -3017,7 +3050,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s">
         <v>73</v>
@@ -3025,7 +3058,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
@@ -3049,7 +3082,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -3065,10 +3098,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3178,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s">
         <v>123</v>
@@ -3185,10 +3218,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3234,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B102" t="s">
         <v>123</v>
@@ -3313,7 +3346,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B116" t="s">
         <v>73</v>
@@ -3577,7 +3610,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B149" t="s">
         <v>236</v>
@@ -3641,7 +3674,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B157" t="s">
         <v>370</v>
@@ -3657,10 +3690,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,50 +3770,50 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B173" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3873,47 +3906,47 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="B187" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B190" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B191" t="s">
         <v>73</v>
@@ -3921,7 +3954,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B192" t="s">
         <v>73</v>
@@ -3929,7 +3962,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
         <v>73</v>
@@ -3937,7 +3970,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="B194" t="s">
         <v>73</v>
@@ -3945,7 +3978,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B195" t="s">
         <v>73</v>
@@ -3953,7 +3986,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -3961,7 +3994,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="B197" t="s">
         <v>73</v>
@@ -3969,7 +4002,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s">
         <v>73</v>
@@ -3977,7 +4010,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="B199" t="s">
         <v>73</v>
@@ -3985,7 +4018,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>466</v>
+        <v>94</v>
       </c>
       <c r="B200" t="s">
         <v>73</v>
@@ -3993,7 +4026,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -4001,7 +4034,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B202" t="s">
         <v>73</v>
@@ -4009,23 +4042,23 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B204" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B205" t="s">
         <v>248</v>
@@ -4033,15 +4066,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B206" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B207" t="s">
         <v>184</v>
@@ -4049,23 +4082,23 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="B208" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="B209" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B210" t="s">
         <v>184</v>
@@ -4073,7 +4106,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>457</v>
+        <v>199</v>
       </c>
       <c r="B211" t="s">
         <v>184</v>
@@ -4081,23 +4114,23 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -4105,7 +4138,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -4113,7 +4146,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -4121,7 +4154,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -4129,7 +4162,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -4137,7 +4170,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -4145,7 +4178,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -4153,7 +4186,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -4161,7 +4194,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -4169,7 +4202,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>466</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -4177,23 +4210,23 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="B224" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>468</v>
+        <v>200</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -4201,7 +4234,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -4209,31 +4242,31 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B229" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B230" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B231" t="s">
         <v>248</v>
@@ -4241,15 +4274,15 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B232" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
         <v>219</v>
@@ -4257,87 +4290,87 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="B234" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="B235" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B236" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="B237" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="B239" t="s">
-        <v>184</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B241" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B244" t="s">
         <v>73</v>
@@ -4345,7 +4378,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B245" t="s">
         <v>73</v>
@@ -4353,31 +4386,31 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>431</v>
+        <v>101</v>
       </c>
       <c r="B246" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>102</v>
+        <v>430</v>
       </c>
       <c r="B247" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B248" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B249" t="s">
         <v>236</v>
@@ -4385,15 +4418,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B251" t="s">
         <v>184</v>
@@ -4401,15 +4434,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B252" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B253" t="s">
         <v>236</v>
@@ -4417,7 +4450,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B254" t="s">
         <v>236</v>
@@ -4425,7 +4458,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B255" t="s">
         <v>236</v>
@@ -4433,7 +4466,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B256" t="s">
         <v>236</v>
@@ -4441,7 +4474,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B257" t="s">
         <v>236</v>
@@ -4449,7 +4482,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B258" t="s">
         <v>236</v>
@@ -4457,15 +4490,15 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>469</v>
+        <v>244</v>
       </c>
       <c r="B259" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -4473,15 +4506,15 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262" t="s">
         <v>266</v>
@@ -4489,7 +4522,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263" t="s">
         <v>266</v>
@@ -4497,23 +4530,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="B264" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="B265" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s">
         <v>53</v>
@@ -4521,23 +4554,23 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>476</v>
+        <v>304</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>66</v>
+        <v>475</v>
       </c>
       <c r="B269" t="s">
         <v>53</v>
@@ -4545,47 +4578,47 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="B270" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="B272" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B273" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="B274" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B275" t="s">
         <v>123</v>
@@ -4593,15 +4626,15 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="B276" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B277" t="s">
         <v>261</v>
@@ -4609,7 +4642,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B278" t="s">
         <v>261</v>
@@ -4617,7 +4650,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>470</v>
+        <v>348</v>
       </c>
       <c r="B279" t="s">
         <v>261</v>
@@ -4625,23 +4658,23 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="B280" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>471</v>
+        <v>258</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="B282" t="s">
         <v>261</v>
@@ -4649,7 +4682,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B283" t="s">
         <v>261</v>
@@ -4657,39 +4690,39 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="B284" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="B285" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B286" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="B287" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -4697,7 +4730,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4705,7 +4738,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -4713,7 +4746,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -4721,15 +4754,15 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="B292" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B293" t="s">
         <v>123</v>
@@ -4737,47 +4770,47 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B294" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="B295" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="B296" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B297" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B298" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B299" t="s">
         <v>266</v>
@@ -4785,71 +4818,71 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>309</v>
       </c>
       <c r="B300" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="B301" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="B302" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="B303" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>28</v>
+        <v>434</v>
       </c>
       <c r="B305" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B306" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>477</v>
+        <v>28</v>
       </c>
       <c r="B307" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B308" t="s">
         <v>53</v>
@@ -4857,31 +4890,31 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="B309" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B310" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>105</v>
+        <v>503</v>
       </c>
       <c r="B311" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B312" t="s">
         <v>73</v>
@@ -4889,23 +4922,23 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="B313" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="B314" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B315" t="s">
         <v>73</v>
@@ -4913,151 +4946,151 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="B316" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="B317" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="B318" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="B319" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="B320" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="B321" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B322" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="B323" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="B324" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="B325" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>314</v>
+        <v>477</v>
       </c>
       <c r="B326" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>259</v>
+        <v>452</v>
       </c>
       <c r="B327" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="B328" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="B329" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="B330" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="B331" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>495</v>
+        <v>351</v>
       </c>
       <c r="B332" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="B333" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B334" t="s">
         <v>165</v>
@@ -5065,7 +5098,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B335" t="s">
         <v>165</v>
@@ -5073,15 +5106,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="B336" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B337" t="s">
         <v>165</v>
@@ -5089,7 +5122,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B338" t="s">
         <v>165</v>
@@ -5097,7 +5130,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B339" t="s">
         <v>165</v>
@@ -5105,55 +5138,55 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="B342" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="B343" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="B344" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="B345" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B346" t="s">
         <v>261</v>
@@ -5161,7 +5194,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>354</v>
+        <v>497</v>
       </c>
       <c r="B347" t="s">
         <v>261</v>
@@ -5169,7 +5202,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>355</v>
+        <v>498</v>
       </c>
       <c r="B348" t="s">
         <v>261</v>
@@ -5177,175 +5210,175 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="B349" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="B350" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="B351" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="B353" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>70</v>
+        <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>53</v>
+        <v>261</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="B356" t="s">
-        <v>370</v>
+        <v>73</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>374</v>
+        <v>112</v>
       </c>
       <c r="B357" t="s">
-        <v>370</v>
+        <v>73</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>375</v>
+        <v>178</v>
       </c>
       <c r="B358" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="B359" t="s">
-        <v>370</v>
+        <v>165</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
       <c r="B360" t="s">
-        <v>370</v>
+        <v>73</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>373</v>
+        <v>70</v>
       </c>
       <c r="B361" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B362" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B363" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="B365" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B366" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B367" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>152</v>
+        <v>373</v>
       </c>
       <c r="B368" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="B369" t="s">
-        <v>418</v>
+        <v>261</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>454</v>
+        <v>114</v>
       </c>
       <c r="B370" t="s">
         <v>73</v>
@@ -5353,15 +5386,15 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="B371" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B372" t="s">
         <v>184</v>
@@ -5369,47 +5402,47 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="B373" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="B374" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="B375" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B376" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="B377" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>118</v>
+        <v>453</v>
       </c>
       <c r="B378" t="s">
         <v>73</v>
@@ -5417,23 +5450,23 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="B379" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="B380" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B381" t="s">
         <v>73</v>
@@ -5441,23 +5474,23 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="B382" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="B383" t="s">
-        <v>418</v>
+        <v>261</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B384" t="s">
         <v>73</v>
@@ -5465,79 +5498,79 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="B385" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>398</v>
+        <v>118</v>
       </c>
       <c r="B386" t="s">
-        <v>399</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="B387" t="s">
-        <v>399</v>
+        <v>261</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>479</v>
+        <v>262</v>
       </c>
       <c r="B388" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>491</v>
+        <v>120</v>
       </c>
       <c r="B389" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="B390" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>320</v>
+        <v>505</v>
       </c>
       <c r="B391" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="B392" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>226</v>
+        <v>507</v>
       </c>
       <c r="B393" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>228</v>
+        <v>508</v>
       </c>
       <c r="B394" t="s">
         <v>219</v>
@@ -5545,359 +5578,359 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>230</v>
+        <v>509</v>
       </c>
       <c r="B395" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>227</v>
+        <v>510</v>
       </c>
       <c r="B396" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="B397" t="s">
-        <v>219</v>
+        <v>417</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="B398" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="B399" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>233</v>
+        <v>501</v>
       </c>
       <c r="B402" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="B403" t="s">
-        <v>381</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="B404" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="B405" t="s">
-        <v>381</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="B406" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="B407" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B408" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="B409" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>392</v>
+        <v>230</v>
       </c>
       <c r="B410" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B411" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B412" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="B413" t="s">
-        <v>494</v>
+        <v>219</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B414" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>393</v>
+        <v>232</v>
       </c>
       <c r="B415" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="B417" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>32</v>
+        <v>385</v>
       </c>
       <c r="B418" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B419" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B420" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="B421" t="s">
-        <v>402</v>
+        <v>53</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B422" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="B423" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="B424" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="B425" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="B426" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>414</v>
+        <v>212</v>
       </c>
       <c r="B427" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="B428" t="s">
-        <v>4</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="B429" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>180</v>
+        <v>392</v>
       </c>
       <c r="B430" t="s">
-        <v>165</v>
+        <v>380</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="B431" t="s">
-        <v>402</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="B432" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="B433" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B434" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B435" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B436" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="B437" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="B438" t="s">
-        <v>402</v>
+        <v>37</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B439" t="s">
         <v>266</v>
@@ -5905,127 +5938,127 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="B440" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="B441" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="B442" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="B443" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
       <c r="B444" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>180</v>
       </c>
       <c r="B445" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="B446" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>326</v>
+        <v>182</v>
       </c>
       <c r="B447" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B448" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="B449" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="B450" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B451" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="B452" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="B453" t="s">
-        <v>2</v>
+        <v>401</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="B454" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B455" t="s">
         <v>266</v>
@@ -6033,191 +6066,191 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B456" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>364</v>
+        <v>454</v>
       </c>
       <c r="B457" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="B458" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
       <c r="B459" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="B460" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="B461" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="B462" t="s">
-        <v>418</v>
+        <v>266</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>492</v>
+        <v>121</v>
       </c>
       <c r="B463" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>330</v>
+        <v>441</v>
       </c>
       <c r="B464" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="B465" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B466" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="B467" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="B468" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>367</v>
+        <v>2</v>
       </c>
       <c r="B469" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>493</v>
+        <v>327</v>
       </c>
       <c r="B470" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="B471" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>482</v>
+        <v>364</v>
       </c>
       <c r="B472" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>483</v>
+        <v>365</v>
       </c>
       <c r="B473" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="B474" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B475" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B476" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B477" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="B478" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B479" t="s">
         <v>266</v>
@@ -6225,7 +6258,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B480" t="s">
         <v>266</v>
@@ -6233,23 +6266,23 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="B481" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="B482" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B483" t="s">
         <v>266</v>
@@ -6257,111 +6290,199 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B484" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="B485" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>341</v>
+        <v>480</v>
       </c>
       <c r="B486" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>342</v>
+        <v>481</v>
       </c>
       <c r="B487" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>343</v>
+        <v>482</v>
       </c>
       <c r="B488" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>217</v>
+        <v>483</v>
       </c>
       <c r="B489" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="B490" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B491" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>498</v>
+        <v>329</v>
       </c>
       <c r="B492" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>499</v>
+        <v>335</v>
       </c>
       <c r="B493" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>500</v>
+        <v>336</v>
       </c>
       <c r="B494" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>501</v>
+        <v>337</v>
       </c>
       <c r="B495" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>502</v>
+        <v>215</v>
       </c>
       <c r="B496" t="s">
-        <v>261</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>216</v>
+      </c>
+      <c r="B497" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>338</v>
+      </c>
+      <c r="B498" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>339</v>
+      </c>
+      <c r="B499" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>340</v>
+      </c>
+      <c r="B500" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>341</v>
+      </c>
+      <c r="B501" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>342</v>
+      </c>
+      <c r="B502" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>343</v>
+      </c>
+      <c r="B503" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>217</v>
+      </c>
+      <c r="B504" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>455</v>
+      </c>
+      <c r="B505" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>511</v>
+      </c>
+      <c r="B506" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>512</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B490">
-    <sortCondition ref="A3:A490"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B505">
+    <sortCondition ref="A3:A505"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4EFD2-1AA9-4BC3-81B3-489EB864BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED11B4-4FCC-4B72-AEE3-7F816836B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="515">
   <si>
     <t>Name</t>
   </si>
@@ -1575,6 +1575,9 @@
   </si>
   <si>
     <t>Recreation Fish &amp; Wildlife</t>
+  </si>
+  <si>
+    <t>Voluntary Environmental Flow</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2108,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2415,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="I361" sqref="I361"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="I499" sqref="I499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3682,31 +3696,31 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>298</v>
+        <v>511</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>473</v>
+        <v>298</v>
       </c>
       <c r="B159" t="s">
-        <v>401</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B161" t="s">
         <v>53</v>
@@ -3714,7 +3728,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B162" t="s">
         <v>53</v>
@@ -3722,7 +3736,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B163" t="s">
         <v>53</v>
@@ -3730,7 +3744,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
         <v>53</v>
@@ -3738,7 +3752,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B165" t="s">
         <v>53</v>
@@ -3746,7 +3760,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B166" t="s">
         <v>53</v>
@@ -3754,31 +3768,31 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>401</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B170" t="s">
         <v>401</v>
@@ -3786,7 +3800,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B171" t="s">
         <v>401</v>
@@ -3794,7 +3808,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s">
         <v>401</v>
@@ -3802,7 +3816,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="B173" t="s">
         <v>401</v>
@@ -3810,7 +3824,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>487</v>
+        <v>408</v>
       </c>
       <c r="B174" t="s">
         <v>401</v>
@@ -3818,15 +3832,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>487</v>
       </c>
       <c r="B175" t="s">
-        <v>73</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B176" t="s">
         <v>73</v>
@@ -3834,23 +3848,23 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>368</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B179" t="s">
         <v>123</v>
@@ -3858,7 +3872,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B180" t="s">
         <v>123</v>
@@ -3866,15 +3880,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B182" t="s">
         <v>165</v>
@@ -3882,7 +3896,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B183" t="s">
         <v>165</v>
@@ -3890,7 +3904,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B184" t="s">
         <v>165</v>
@@ -3898,63 +3912,63 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="B185" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>502</v>
+        <v>299</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B192" t="s">
         <v>73</v>
@@ -3962,7 +3976,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B193" t="s">
         <v>73</v>
@@ -3970,7 +3984,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="B194" t="s">
         <v>73</v>
@@ -3978,7 +3992,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s">
         <v>73</v>
@@ -3986,7 +4000,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B196" t="s">
         <v>73</v>
@@ -3994,7 +4008,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
         <v>73</v>
@@ -4002,7 +4016,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>464</v>
+        <v>89</v>
       </c>
       <c r="B198" t="s">
         <v>73</v>
@@ -4010,7 +4024,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B199" t="s">
         <v>73</v>
@@ -4018,7 +4032,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="B200" t="s">
         <v>73</v>
@@ -4026,7 +4040,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>465</v>
+        <v>94</v>
       </c>
       <c r="B201" t="s">
         <v>73</v>
@@ -4034,7 +4048,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="B202" t="s">
         <v>73</v>
@@ -4042,7 +4056,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B203" t="s">
         <v>73</v>
@@ -4050,23 +4064,23 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B205" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B206" t="s">
         <v>248</v>
@@ -4074,15 +4088,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B207" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B208" t="s">
         <v>184</v>
@@ -4090,23 +4104,23 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="B210" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B211" t="s">
         <v>184</v>
@@ -4114,7 +4128,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>456</v>
+        <v>199</v>
       </c>
       <c r="B212" t="s">
         <v>184</v>
@@ -4122,23 +4136,23 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -4146,7 +4160,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -4154,7 +4168,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -4162,7 +4176,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -4170,7 +4184,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -4178,7 +4192,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -4186,7 +4200,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -4194,7 +4208,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -4202,7 +4216,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>466</v>
+        <v>22</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -4210,7 +4224,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>25</v>
+        <v>466</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -4218,23 +4232,23 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>467</v>
+        <v>200</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -4242,7 +4256,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -4250,31 +4264,31 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B230" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
         <v>248</v>
@@ -4282,15 +4296,15 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B234" t="s">
         <v>219</v>
@@ -4298,87 +4312,87 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="B236" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B237" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>371</v>
       </c>
       <c r="B238" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="B239" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>202</v>
+        <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>184</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B241" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B242" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B243" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B245" t="s">
         <v>73</v>
@@ -4386,7 +4400,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B246" t="s">
         <v>73</v>
@@ -4394,31 +4408,31 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>102</v>
+        <v>430</v>
       </c>
       <c r="B248" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B249" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B250" t="s">
         <v>236</v>
@@ -4426,15 +4440,15 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B252" t="s">
         <v>184</v>
@@ -4442,15 +4456,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B253" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s">
         <v>236</v>
@@ -4458,7 +4472,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B255" t="s">
         <v>236</v>
@@ -4466,7 +4480,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B256" t="s">
         <v>236</v>
@@ -4474,7 +4488,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B257" t="s">
         <v>236</v>
@@ -4482,7 +4496,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B258" t="s">
         <v>236</v>
@@ -4490,7 +4504,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B259" t="s">
         <v>236</v>
@@ -4498,15 +4512,15 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>468</v>
+        <v>244</v>
       </c>
       <c r="B260" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -4514,15 +4528,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="B262" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B263" t="s">
         <v>266</v>
@@ -4530,7 +4544,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B264" t="s">
         <v>266</v>
@@ -4538,23 +4552,23 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="B265" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="B266" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>459</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s">
         <v>53</v>
@@ -4562,23 +4576,23 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="B269" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>66</v>
+        <v>475</v>
       </c>
       <c r="B270" t="s">
         <v>53</v>
@@ -4586,47 +4600,47 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="B271" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="B272" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="B273" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B274" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="B275" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B276" t="s">
         <v>123</v>
@@ -4634,15 +4648,15 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="B277" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B278" t="s">
         <v>261</v>
@@ -4650,7 +4664,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B279" t="s">
         <v>261</v>
@@ -4658,7 +4672,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="B280" t="s">
         <v>261</v>
@@ -4666,23 +4680,23 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="B281" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>470</v>
+        <v>258</v>
       </c>
       <c r="B282" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="B283" t="s">
         <v>261</v>
@@ -4690,7 +4704,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B284" t="s">
         <v>261</v>
@@ -4698,39 +4712,39 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="B285" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="B286" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="B288" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4738,7 +4752,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -4746,7 +4760,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -4754,7 +4768,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -4762,15 +4776,15 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B294" t="s">
         <v>123</v>
@@ -4778,47 +4792,47 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B295" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="B296" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="B297" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B299" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B300" t="s">
         <v>266</v>
@@ -4826,55 +4840,55 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="B301" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="B302" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="B303" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>307</v>
+        <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="B305" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>27</v>
+        <v>434</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -4882,15 +4896,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B308" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="B309" t="s">
         <v>53</v>
@@ -4898,7 +4912,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="B310" t="s">
         <v>53</v>
@@ -4906,23 +4920,23 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>503</v>
+        <v>69</v>
       </c>
       <c r="B311" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>104</v>
+        <v>503</v>
       </c>
       <c r="B312" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B313" t="s">
         <v>73</v>
@@ -4930,7 +4944,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B314" t="s">
         <v>73</v>
@@ -4938,7 +4952,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B315" t="s">
         <v>73</v>
@@ -4946,47 +4960,47 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="B316" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B317" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="B318" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B319" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>311</v>
+        <v>51</v>
       </c>
       <c r="B320" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B321" t="s">
         <v>266</v>
@@ -4994,63 +5008,63 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>504</v>
+        <v>312</v>
       </c>
       <c r="B322" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="B323" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="B324" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="B325" t="s">
-        <v>73</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>477</v>
+        <v>108</v>
       </c>
       <c r="B326" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="B327" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>205</v>
+        <v>452</v>
       </c>
       <c r="B328" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B329" t="s">
         <v>184</v>
@@ -5058,47 +5072,47 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="B330" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="B331" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="B332" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>109</v>
+        <v>351</v>
       </c>
       <c r="B333" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B334" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B335" t="s">
         <v>165</v>
@@ -5106,23 +5120,23 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="B336" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>174</v>
+        <v>494</v>
       </c>
       <c r="B337" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B338" t="s">
         <v>165</v>
@@ -5130,7 +5144,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B339" t="s">
         <v>165</v>
@@ -5138,7 +5152,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B340" t="s">
         <v>165</v>
@@ -5146,7 +5160,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B341" t="s">
         <v>165</v>
@@ -5154,7 +5168,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B342" t="s">
         <v>165</v>
@@ -5162,7 +5176,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B343" t="s">
         <v>165</v>
@@ -5170,15 +5184,15 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="B344" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
@@ -5186,15 +5200,15 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>497</v>
+        <v>352</v>
       </c>
       <c r="B347" t="s">
         <v>261</v>
@@ -5202,7 +5216,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B348" t="s">
         <v>261</v>
@@ -5210,15 +5224,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>260</v>
+        <v>498</v>
       </c>
       <c r="B349" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B350" t="s">
         <v>248</v>
@@ -5226,7 +5240,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B351" t="s">
         <v>248</v>
@@ -5234,15 +5248,15 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="B352" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>499</v>
+        <v>353</v>
       </c>
       <c r="B353" t="s">
         <v>261</v>
@@ -5250,7 +5264,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>499</v>
       </c>
       <c r="B354" t="s">
         <v>261</v>
@@ -5258,7 +5272,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
         <v>261</v>
@@ -5266,15 +5280,15 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B357" t="s">
         <v>73</v>
@@ -5282,15 +5296,15 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B358" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B359" t="s">
         <v>165</v>
@@ -5298,39 +5312,39 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="B360" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B361" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="B362" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>370</v>
+        <v>207</v>
       </c>
       <c r="B363" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B364" t="s">
         <v>370</v>
@@ -5338,7 +5352,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>513</v>
+        <v>374</v>
       </c>
       <c r="B365" t="s">
         <v>370</v>
@@ -5346,7 +5360,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>375</v>
+        <v>513</v>
       </c>
       <c r="B366" t="s">
         <v>370</v>
@@ -5354,7 +5368,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B367" t="s">
         <v>370</v>
@@ -5362,7 +5376,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B368" t="s">
         <v>370</v>
@@ -5370,55 +5384,55 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="B369" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>114</v>
+        <v>500</v>
       </c>
       <c r="B370" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="B371" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="B372" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="B373" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="B374" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B375" t="s">
         <v>380</v>
@@ -5426,39 +5440,39 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="B376" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="B377" t="s">
-        <v>417</v>
+        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="B378" t="s">
-        <v>73</v>
+        <v>417</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="B379" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B380" t="s">
         <v>184</v>
@@ -5466,23 +5480,23 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="B381" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>356</v>
+        <v>115</v>
       </c>
       <c r="B382" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B383" t="s">
         <v>261</v>
@@ -5490,71 +5504,71 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>116</v>
+        <v>357</v>
       </c>
       <c r="B384" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="B385" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="B386" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="B387" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="B388" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="B389" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>319</v>
+        <v>120</v>
       </c>
       <c r="B390" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>505</v>
+        <v>319</v>
       </c>
       <c r="B391" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B392" t="s">
         <v>73</v>
@@ -5562,31 +5576,31 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B393" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B394" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B396" t="s">
         <v>401</v>
@@ -5594,39 +5608,39 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="B397" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
       <c r="B398" t="s">
-        <v>73</v>
+        <v>417</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="B399" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B400" t="s">
-        <v>398</v>
+        <v>261</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B401" t="s">
         <v>398</v>
@@ -5634,63 +5648,63 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="B403" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B404" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="B405" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B406" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="B407" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="B408" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B409" t="s">
         <v>219</v>
@@ -5698,7 +5712,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B410" t="s">
         <v>219</v>
@@ -5706,7 +5720,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B411" t="s">
         <v>219</v>
@@ -5714,7 +5728,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B412" t="s">
         <v>219</v>
@@ -5722,7 +5736,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B413" t="s">
         <v>219</v>
@@ -5730,7 +5744,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B414" t="s">
         <v>219</v>
@@ -5738,7 +5752,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B415" t="s">
         <v>219</v>
@@ -5746,7 +5760,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B416" t="s">
         <v>219</v>
@@ -5754,7 +5768,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B417" t="s">
         <v>219</v>
@@ -5762,15 +5776,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="B418" t="s">
-        <v>380</v>
+        <v>219</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B419" t="s">
         <v>380</v>
@@ -5778,7 +5792,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B420" t="s">
         <v>380</v>
@@ -5786,23 +5800,23 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="B421" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B422" t="s">
-        <v>380</v>
+        <v>53</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B423" t="s">
         <v>380</v>
@@ -5810,7 +5824,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B424" t="s">
         <v>380</v>
@@ -5818,7 +5832,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B425" t="s">
         <v>380</v>
@@ -5826,15 +5840,15 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="B426" t="s">
-        <v>184</v>
+        <v>380</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B427" t="s">
         <v>184</v>
@@ -5842,71 +5856,71 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>493</v>
+        <v>212</v>
       </c>
       <c r="B428" t="s">
-        <v>493</v>
+        <v>184</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="B429" t="s">
-        <v>184</v>
+        <v>493</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="B430" t="s">
-        <v>380</v>
+        <v>184</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="B432" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="B433" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="B434" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="B435" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B436" t="s">
         <v>401</v>
@@ -5914,7 +5928,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B437" t="s">
         <v>401</v>
@@ -5922,31 +5936,31 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="B438" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="B439" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="B440" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B441" t="s">
         <v>4</v>
@@ -5954,10 +5968,10 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>413</v>
+        <v>34</v>
       </c>
       <c r="B442" t="s">
-        <v>401</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -5965,12 +5979,12 @@
         <v>413</v>
       </c>
       <c r="B443" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="B444" t="s">
         <v>4</v>
@@ -5978,31 +5992,31 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="B445" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>414</v>
+        <v>180</v>
       </c>
       <c r="B446" t="s">
-        <v>401</v>
+        <v>165</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="B447" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B448" t="s">
         <v>165</v>
@@ -6010,15 +6024,15 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>393</v>
+        <v>181</v>
       </c>
       <c r="B449" t="s">
-        <v>380</v>
+        <v>165</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B450" t="s">
         <v>380</v>
@@ -6026,7 +6040,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B451" t="s">
         <v>380</v>
@@ -6034,31 +6048,31 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B452" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B453" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="B454" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B455" t="s">
         <v>266</v>
@@ -6066,7 +6080,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B456" t="s">
         <v>266</v>
@@ -6074,31 +6088,31 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>454</v>
+        <v>324</v>
       </c>
       <c r="B457" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>163</v>
+        <v>454</v>
       </c>
       <c r="B458" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>439</v>
+        <v>163</v>
       </c>
       <c r="B459" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B460" t="s">
         <v>2</v>
@@ -6106,15 +6120,15 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>325</v>
+        <v>440</v>
       </c>
       <c r="B461" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B462" t="s">
         <v>266</v>
@@ -6122,23 +6136,23 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>121</v>
+        <v>326</v>
       </c>
       <c r="B463" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>441</v>
+        <v>121</v>
       </c>
       <c r="B464" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B465" t="s">
         <v>2</v>
@@ -6146,7 +6160,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B466" t="s">
         <v>2</v>
@@ -6154,7 +6168,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B467" t="s">
         <v>2</v>
@@ -6162,7 +6176,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B468" t="s">
         <v>2</v>
@@ -6170,7 +6184,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>2</v>
+        <v>445</v>
       </c>
       <c r="B469" t="s">
         <v>2</v>
@@ -6178,23 +6192,23 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="B470" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B471" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B472" t="s">
         <v>261</v>
@@ -6202,7 +6216,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B473" t="s">
         <v>261</v>
@@ -6210,7 +6224,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B474" t="s">
         <v>261</v>
@@ -6218,55 +6232,55 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="B475" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>419</v>
+        <v>514</v>
       </c>
       <c r="B477" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="B478" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="B479" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>331</v>
+        <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B481" t="s">
         <v>266</v>
@@ -6274,7 +6288,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B482" t="s">
         <v>266</v>
@@ -6282,7 +6296,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B483" t="s">
         <v>266</v>
@@ -6290,87 +6304,87 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B484" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>492</v>
+        <v>334</v>
       </c>
       <c r="B485" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="B486" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B487" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B488" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B489" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B490" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B491" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="B492" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>335</v>
+        <v>485</v>
       </c>
       <c r="B493" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B494" t="s">
         <v>266</v>
@@ -6378,31 +6392,31 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>337</v>
+        <v>512</v>
       </c>
       <c r="B495" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="B496" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="B497" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B498" t="s">
         <v>266</v>
@@ -6410,23 +6424,23 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="B499" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>340</v>
+        <v>216</v>
       </c>
       <c r="B500" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B501" t="s">
         <v>266</v>
@@ -6434,7 +6448,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B502" t="s">
         <v>266</v>
@@ -6442,7 +6456,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B503" t="s">
         <v>266</v>
@@ -6450,39 +6464,47 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="B504" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="B505" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="B506" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>512</v>
+        <v>217</v>
       </c>
       <c r="B507" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>455</v>
+      </c>
+      <c r="B508" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B505">
-    <sortCondition ref="A3:A505"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B508">
+    <sortCondition ref="A3:A508"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED11B4-4FCC-4B72-AEE3-7F816836B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B1FBE4-7203-4FEA-A325-0DCFA83ADAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="520">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Unspecified</t>
   </si>
   <si>
-    <t>Agriculture other than irrigation</t>
-  </si>
-  <si>
     <t>Agriculture Irrigation</t>
   </si>
   <si>
@@ -65,102 +62,45 @@
     <t>Agriculture Uses</t>
   </si>
   <si>
-    <t>AGRICULTURE - WETLAND</t>
-  </si>
-  <si>
-    <t>Conducting Groundwater for Irrigation (Source is a Registered Groundwater Well)</t>
-  </si>
-  <si>
-    <t>Conducting Surface Water for Irrigation (Uses Water from an Existing Appropriation)</t>
-  </si>
-  <si>
     <t>Cranberries</t>
   </si>
   <si>
     <t>Cranberry</t>
   </si>
   <si>
-    <t>Harvesting of Cranberries</t>
-  </si>
-  <si>
     <t>Irrigation</t>
   </si>
   <si>
-    <t>Irrigation and Domestic</t>
-  </si>
-  <si>
-    <t>Irrigation and Storage (an appropriation which was approved for both uses)</t>
-  </si>
-  <si>
     <t>Irrigation-Carey Act</t>
   </si>
   <si>
-    <t>Irrigation-DLE</t>
-  </si>
-  <si>
-    <t>Irrigation from Natural Stream</t>
-  </si>
-  <si>
     <t>Irrigation From Storage</t>
   </si>
   <si>
-    <t>Irrigation and Incidental Underground Storage</t>
-  </si>
-  <si>
-    <t>Irrigation from Natural Lake</t>
-  </si>
-  <si>
-    <t>Irrigation of Cranberries</t>
-  </si>
-  <si>
-    <t>Irrigation and Storage (an appropriation approved for both uses)</t>
-  </si>
-  <si>
     <t>Nursery</t>
   </si>
   <si>
     <t>Nursery Uses</t>
   </si>
   <si>
-    <t>PRACTICABLY IRRIGABLE ACREAGE</t>
-  </si>
-  <si>
-    <t>Primary and Supplemental Irrigation</t>
-  </si>
-  <si>
     <t>Sub Irrigation</t>
   </si>
   <si>
-    <t>SUBIRRIGATION</t>
-  </si>
-  <si>
     <t>Supplemental Irrigation</t>
   </si>
   <si>
-    <t>Supplemental Irrigation (irr from res on lands also covered by nat flow appropriation)</t>
-  </si>
-  <si>
-    <t>Supplemental Irrigation and Incidental Underground Storage</t>
-  </si>
-  <si>
     <t>Irrigated Agriculture</t>
   </si>
   <si>
     <t>Aquaculture</t>
   </si>
   <si>
-    <t>CULTIVATION OF FISH</t>
-  </si>
-  <si>
     <t>Fish Culture</t>
   </si>
   <si>
     <t>Fishery</t>
   </si>
   <si>
-    <t>FISH FARMING</t>
-  </si>
-  <si>
     <t>Fish Habitat</t>
   </si>
   <si>
@@ -188,9 +128,6 @@
     <t>Mariculture</t>
   </si>
   <si>
-    <t>OTHER (FISH HATCHERY)</t>
-  </si>
-  <si>
     <t>Supplemental Fish Culture</t>
   </si>
   <si>
@@ -233,9 +170,6 @@
     <t>Marketing For Mitigation/Aquifer Recharge</t>
   </si>
   <si>
-    <t>Monitoring well</t>
-  </si>
-  <si>
     <t>Monitor</t>
   </si>
   <si>
@@ -248,39 +182,21 @@
     <t>Recharge</t>
   </si>
   <si>
-    <t>Storage and Incidental Underground Storage</t>
-  </si>
-  <si>
-    <t>AIR CONDITIONING</t>
-  </si>
-  <si>
     <t>Commercial/Industrial</t>
   </si>
   <si>
     <t>Bottled Water</t>
   </si>
   <si>
-    <t>BOTTLING</t>
-  </si>
-  <si>
-    <t>Brine production well</t>
-  </si>
-  <si>
     <t>Chemical</t>
   </si>
   <si>
     <t>Commercial</t>
   </si>
   <si>
-    <t>Commercial &amp; indust</t>
-  </si>
-  <si>
     <t>Commercial From Storage</t>
   </si>
   <si>
-    <t>Commercial (self-supplied)</t>
-  </si>
-  <si>
     <t>Commercial Storage</t>
   </si>
   <si>
@@ -293,30 +209,15 @@
     <t>Highway</t>
   </si>
   <si>
-    <t>Highway construction</t>
-  </si>
-  <si>
     <t>Industrial</t>
   </si>
   <si>
-    <t>INDUSTRIAL COOLING</t>
-  </si>
-  <si>
     <t>Industrial From Storage</t>
   </si>
   <si>
     <t>Industrial/Manufacturing Uses</t>
   </si>
   <si>
-    <t>INDUSTRIAL - POWER GENERATION</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL - SALT WATER</t>
-  </si>
-  <si>
-    <t>Industrial (self-supplied)</t>
-  </si>
-  <si>
     <t>Industrial Storage</t>
   </si>
   <si>
@@ -332,42 +233,15 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Meat packing plant</t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
-    <t>MEDICINAL</t>
-  </si>
-  <si>
-    <t>Military - military installations</t>
-  </si>
-  <si>
-    <t>Oil field maintenance</t>
-  </si>
-  <si>
     <t>Oil</t>
   </si>
   <si>
-    <t>Oil production</t>
-  </si>
-  <si>
     <t>Oil Well Flooding</t>
   </si>
   <si>
-    <t>OTHER - PRODUCTION</t>
-  </si>
-  <si>
-    <t>Petroleum processing plant</t>
-  </si>
-  <si>
-    <t>Poultry and egg operation</t>
-  </si>
-  <si>
-    <t>72-12-1 Construction of public works</t>
-  </si>
-  <si>
     <t>Railroad</t>
   </si>
   <si>
@@ -386,63 +260,24 @@
     <t>Sale</t>
   </si>
   <si>
-    <t>72-12-1 Sanitary in conjunction with a commercial use</t>
-  </si>
-  <si>
     <t>Sawmill</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>Secondary recovery of oil</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>DCII</t>
-  </si>
-  <si>
     <t>Domestic</t>
   </si>
   <si>
-    <t>Domestic construction</t>
-  </si>
-  <si>
-    <t>72-12-1 domestic and livestock watering</t>
-  </si>
-  <si>
-    <t>72-12-1 domestic one household</t>
-  </si>
-  <si>
-    <t>Domestic and Livestock</t>
-  </si>
-  <si>
-    <t>DOMESTIC AND LIVESTOCK &amp; LIVESTOCK</t>
-  </si>
-  <si>
     <t>Domestic Expanded</t>
   </si>
   <si>
     <t>Domestic From Storage</t>
   </si>
   <si>
-    <t>Domestic general</t>
-  </si>
-  <si>
-    <t>Domestic Including Lawn and Garden</t>
-  </si>
-  <si>
-    <t>Domestic multiple</t>
-  </si>
-  <si>
-    <t>Domestic (self-supplied)</t>
-  </si>
-  <si>
-    <t>Domestic single</t>
-  </si>
-  <si>
     <t>Domestic Storage</t>
   </si>
   <si>
@@ -461,36 +296,12 @@
     <t>Human Consumption</t>
   </si>
   <si>
-    <t>Human Consumption and Livestock</t>
-  </si>
-  <si>
-    <t>Mobile home parks</t>
-  </si>
-  <si>
-    <t>72-12-1 multiple domestic households</t>
-  </si>
-  <si>
     <t>Multiple Domestic</t>
   </si>
   <si>
-    <t>MULTIPLE PURPOSE</t>
-  </si>
-  <si>
     <t>Multiple Use</t>
   </si>
   <si>
-    <t>MUNICIPAL/DOMESTIC AND LIVESTOCK</t>
-  </si>
-  <si>
-    <t>Non 72-12-1 domestic and livestock watering</t>
-  </si>
-  <si>
-    <t>Non 72-12-1 domestic one household</t>
-  </si>
-  <si>
-    <t>Non 72-12-1 multiple domestic households</t>
-  </si>
-  <si>
     <t>Restroom</t>
   </si>
   <si>
@@ -509,9 +320,6 @@
     <t>Fire Protection Storage</t>
   </si>
   <si>
-    <t>Geothermal boreholes</t>
-  </si>
-  <si>
     <t>Geothermal</t>
   </si>
   <si>
@@ -527,18 +335,12 @@
     <t>Thermoelectric Power</t>
   </si>
   <si>
-    <t>HYDROELECTRIC</t>
-  </si>
-  <si>
     <t>Hydroelectric</t>
   </si>
   <si>
     <t>Hydroelectric Power</t>
   </si>
   <si>
-    <t>HYDROELECTRIC - PRIORITY</t>
-  </si>
-  <si>
     <t>Hydropower</t>
   </si>
   <si>
@@ -560,60 +362,27 @@
     <t>Power (Hydro-Elec)</t>
   </si>
   <si>
-    <t>Power and Incidental Underground Storage</t>
-  </si>
-  <si>
-    <t>Power (self-supplied)</t>
-  </si>
-  <si>
     <t>Power Storage</t>
   </si>
   <si>
     <t>Raise Dam</t>
   </si>
   <si>
-    <t>Raise Dam (for increase in head for power production)</t>
-  </si>
-  <si>
     <t>Supplemental Power</t>
   </si>
   <si>
-    <t>Supplemental Power and Incidental Underground Storage</t>
-  </si>
-  <si>
-    <t>Supplemental Power (prior appropriation for power)</t>
-  </si>
-  <si>
-    <t>Anadromous and Resident Fish Habitat (Instream)</t>
-  </si>
-  <si>
     <t>In-stream Flow</t>
   </si>
   <si>
-    <t>AQUATIC LIFE (INSTREAM)</t>
-  </si>
-  <si>
-    <t>BED AND BANKS</t>
-  </si>
-  <si>
     <t>Consumptive Instream Flow</t>
   </si>
   <si>
     <t>Cumulative Accretion To River</t>
   </si>
   <si>
-    <t>Fish and game propogation</t>
-  </si>
-  <si>
-    <t>FIRE PROTECTION (INSTREAM)</t>
-  </si>
-  <si>
     <t>Fish And Wildlife</t>
   </si>
   <si>
-    <t>Fish and Wildlife Preservation and Enhancement</t>
-  </si>
-  <si>
     <t>Fish And Wildlife Propagation</t>
   </si>
   <si>
@@ -623,9 +392,6 @@
     <t>Minimum Stream Flow</t>
   </si>
   <si>
-    <t>INSTREAM</t>
-  </si>
-  <si>
     <t>Instream Basin-Management</t>
   </si>
   <si>
@@ -656,27 +422,15 @@
     <t>Pollution Abatement (Instream)</t>
   </si>
   <si>
-    <t>RECOVERY</t>
-  </si>
-  <si>
     <t>Required Delta Outflow</t>
   </si>
   <si>
-    <t>RIPARIAN HABITAT (INSTREAM)</t>
-  </si>
-  <si>
     <t>Riparian Habitat Restoration Project</t>
   </si>
   <si>
     <t>Stream</t>
   </si>
   <si>
-    <t>Stream augmentation</t>
-  </si>
-  <si>
-    <t>STREAMFLOW MAINTENANCE FROM STORAGE</t>
-  </si>
-  <si>
     <t>Fish &amp; Wildlife</t>
   </si>
   <si>
@@ -686,12 +440,6 @@
     <t>Wildlife</t>
   </si>
   <si>
-    <t>WILDLIFE/WATERFOWL</t>
-  </si>
-  <si>
-    <t>Dairy operation</t>
-  </si>
-  <si>
     <t>Livestock</t>
   </si>
   <si>
@@ -701,33 +449,12 @@
     <t>Dairy Barn Uses</t>
   </si>
   <si>
-    <t>Feed pen operation</t>
-  </si>
-  <si>
-    <t>Livestock (self-supplied)</t>
-  </si>
-  <si>
-    <t>Non 72-12-1 livestock watering</t>
-  </si>
-  <si>
-    <t>72-12-1 livestock watering</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
     <t>Stock Watering</t>
   </si>
   <si>
-    <t>Stock and Domestic</t>
-  </si>
-  <si>
-    <t>STOCKRAISING</t>
-  </si>
-  <si>
-    <t>Stock water</t>
-  </si>
-  <si>
     <t>Stockwater</t>
   </si>
   <si>
@@ -752,27 +479,12 @@
     <t>Milling</t>
   </si>
   <si>
-    <t>Mining or milling or oil</t>
-  </si>
-  <si>
-    <t>Mining and Milling</t>
-  </si>
-  <si>
     <t>Mining From Storage</t>
   </si>
   <si>
-    <t>Mining Milling and Dewatering</t>
-  </si>
-  <si>
-    <t>Mining (self-supplied)</t>
-  </si>
-  <si>
     <t>Mining Storage</t>
   </si>
   <si>
-    <t>OTHER - MINERAL EXPLORE</t>
-  </si>
-  <si>
     <t>Minerals</t>
   </si>
   <si>
@@ -794,9 +506,6 @@
     <t>Cemetery</t>
   </si>
   <si>
-    <t>INSTITUTION</t>
-  </si>
-  <si>
     <t>Institutional</t>
   </si>
   <si>
@@ -815,57 +524,27 @@
     <t>Pond Maintenance</t>
   </si>
   <si>
-    <t>PUBLIC PARKS</t>
-  </si>
-  <si>
     <t>Public Supply</t>
   </si>
   <si>
-    <t>School use</t>
-  </si>
-  <si>
-    <t>Public utility</t>
-  </si>
-  <si>
     <t>Non-Agricultural Irrigation</t>
   </si>
   <si>
-    <t>0 RELEASE FOR ENVIROMENT</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Administrative</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>ANNUAL USE</t>
-  </si>
-  <si>
     <t>Chloride Control</t>
   </si>
   <si>
-    <t>Dewatering well</t>
-  </si>
-  <si>
     <t>Dewatering</t>
   </si>
   <si>
     <t>Discharge</t>
   </si>
   <si>
-    <t>DIVERSION OUT OF BASIN</t>
-  </si>
-  <si>
-    <t>DivTotal</t>
-  </si>
-  <si>
-    <t>DRAINAGE</t>
-  </si>
-  <si>
     <t>Dredge</t>
   </si>
   <si>
@@ -875,9 +554,6 @@
     <t>Environmental</t>
   </si>
   <si>
-    <t>Environmental quality</t>
-  </si>
-  <si>
     <t>Erosion Control</t>
   </si>
   <si>
@@ -926,9 +602,6 @@
     <t>Frost Protection</t>
   </si>
   <si>
-    <t>GAME PRESERVES</t>
-  </si>
-  <si>
     <t>Greenhouse</t>
   </si>
   <si>
@@ -941,54 +614,15 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t>MITIGATION BY NON-USE</t>
-  </si>
-  <si>
     <t>Mitigation Water</t>
   </si>
   <si>
-    <t>MONITORING</t>
-  </si>
-  <si>
-    <t>MULTI USE</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
-    <t>Non-profit organizational use</t>
-  </si>
-  <si>
-    <t>NON CONSUMPTIVE</t>
-  </si>
-  <si>
-    <t>NON-CONSUMPTIVE</t>
-  </si>
-  <si>
-    <t>NONCONSUMPTIVE</t>
-  </si>
-  <si>
     <t>Other Purpose</t>
   </si>
   <si>
-    <t>Other PWS</t>
-  </si>
-  <si>
-    <t>OTHER SPILLWAY/FLOODGAT</t>
-  </si>
-  <si>
-    <t>Pollution control well</t>
-  </si>
-  <si>
-    <t>72-12-1 Prospecting or development of natural resource</t>
-  </si>
-  <si>
-    <t>REMEDIATION</t>
-  </si>
-  <si>
-    <t>RESERVED</t>
-  </si>
-  <si>
     <t>Saltwater Barrier</t>
   </si>
   <si>
@@ -1004,21 +638,9 @@
     <t>Temporary</t>
   </si>
   <si>
-    <t>Temporary Transfer to In-Stream Use</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Transfer to Instream</t>
-  </si>
-  <si>
     <t>Transmountain Export</t>
   </si>
   <si>
-    <t>UNUSED</t>
-  </si>
-  <si>
     <t>Exports/Imports</t>
   </si>
   <si>
@@ -1028,9 +650,6 @@
     <t>Water Marketing</t>
   </si>
   <si>
-    <t>WATER QUALITY</t>
-  </si>
-  <si>
     <t>Water Quality Improvement</t>
   </si>
   <si>
@@ -1058,24 +677,12 @@
     <t>Wildlife Habitat Maintenance And Enhancement</t>
   </si>
   <si>
-    <t>WILDLIFE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Wildlife refuge</t>
-  </si>
-  <si>
     <t>Wildlife Storage</t>
   </si>
   <si>
-    <t>Community type use</t>
-  </si>
-  <si>
     <t>Multi Family Residential</t>
   </si>
   <si>
-    <t>Municipal - city or county supplied water</t>
-  </si>
-  <si>
     <t>Municipal</t>
   </si>
   <si>
@@ -1127,15 +734,6 @@
     <t>M &amp; I</t>
   </si>
   <si>
-    <t>Use in a Mint Still</t>
-  </si>
-  <si>
-    <t>Use Within a School</t>
-  </si>
-  <si>
-    <t>UTILITY (WATER CO)</t>
-  </si>
-  <si>
     <t>Water Supplier</t>
   </si>
   <si>
@@ -1148,33 +746,18 @@
     <t>Recreation</t>
   </si>
   <si>
-    <t>Maintain Level of a Lake</t>
-  </si>
-  <si>
     <t>Parks/Recreation</t>
   </si>
   <si>
     <t>Recreational</t>
   </si>
   <si>
-    <t>Recreation - beautification</t>
-  </si>
-  <si>
     <t>Recreation From Storage</t>
   </si>
   <si>
     <t>Recreation Storage</t>
   </si>
   <si>
-    <t>SWIMMING</t>
-  </si>
-  <si>
-    <t>Golf/CC</t>
-  </si>
-  <si>
-    <t>3 STORAGE</t>
-  </si>
-  <si>
     <t>Reservoir Storage</t>
   </si>
   <si>
@@ -1193,39 +776,9 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>Storage (for irr from res on lands not covered by nat flow appropriation)</t>
-  </si>
-  <si>
-    <t>Storage (for irr from res on lands not covered by nat flow appropriation / Incidental UG Storage)</t>
-  </si>
-  <si>
-    <t>Storage Use-only</t>
-  </si>
-  <si>
-    <t>Stor-only and Incidental Underground Storage</t>
-  </si>
-  <si>
-    <t>Stor-only (irrigation from a reservoir on lands not covered by a natural flow appropriation)</t>
-  </si>
-  <si>
-    <t>Strategic water reserve</t>
-  </si>
-  <si>
-    <t>STREAMFLOW MAINTENANCE STORAGE</t>
-  </si>
-  <si>
     <t>Supplemental Storage</t>
   </si>
   <si>
-    <t>Supplemental Storage (prior appropriation for storage)</t>
-  </si>
-  <si>
-    <t>Supplemental Storage (an appropriation that has a prior appropriation for storage)</t>
-  </si>
-  <si>
-    <t>Major and Minor Reservoirs</t>
-  </si>
-  <si>
     <t>Ski/Snowmaking</t>
   </si>
   <si>
@@ -1235,18 +788,12 @@
     <t>Snow Making</t>
   </si>
   <si>
-    <t>Air Conditioning or Heating</t>
-  </si>
-  <si>
     <t>Thermoelectric Cooling</t>
   </si>
   <si>
     <t>Cooling</t>
   </si>
   <si>
-    <t>Cooling for indust proces</t>
-  </si>
-  <si>
     <t>Cooling From Storage</t>
   </si>
   <si>
@@ -1262,24 +809,9 @@
     <t>Heating</t>
   </si>
   <si>
-    <t>Heat protection for crops</t>
-  </si>
-  <si>
     <t>Supplemental Cooling</t>
   </si>
   <si>
-    <t>Supplemental Cooling (prior appropriation for cooling)</t>
-  </si>
-  <si>
-    <t>Supplemental Cooling (app for water for cooling through a system that has a prior app for cooling)</t>
-  </si>
-  <si>
-    <t>Supplemental Irrigation (irrig. from reservoir on lands covered by a natural flow appropriation)</t>
-  </si>
-  <si>
-    <t>Supplemental Power (an app. for water for power through a system that has a prior app. for power)</t>
-  </si>
-  <si>
     <t>Temperature Control</t>
   </si>
   <si>
@@ -1307,15 +839,6 @@
     <t>Augmentation</t>
   </si>
   <si>
-    <t>Augmentation well</t>
-  </si>
-  <si>
-    <t>Cathodic protection well</t>
-  </si>
-  <si>
-    <t>Closed file</t>
-  </si>
-  <si>
     <t>Combined Uses</t>
   </si>
   <si>
@@ -1334,51 +857,18 @@
     <t>No Purpose Identified</t>
   </si>
   <si>
-    <t>No use of right or POD</t>
-  </si>
-  <si>
     <t>Not Classified</t>
   </si>
   <si>
-    <t>NO USE CODE ON NOI</t>
-  </si>
-  <si>
-    <t>NO WATER USE</t>
-  </si>
-  <si>
-    <t>No right</t>
-  </si>
-  <si>
-    <t>Stacked water right</t>
-  </si>
-  <si>
-    <t>To be determined</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Unassociated GW</t>
-  </si>
-  <si>
-    <t>Unassociated SW</t>
-  </si>
-  <si>
     <t>Undefined</t>
   </si>
   <si>
-    <t>UNDETERMINED</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>WaDE Blank</t>
-  </si>
-  <si>
-    <t>De-watering</t>
-  </si>
-  <si>
     <t>Desalination</t>
   </si>
   <si>
@@ -1388,21 +878,12 @@
     <t>Fracking Supply</t>
   </si>
   <si>
-    <t>Industrial (cooling)</t>
-  </si>
-  <si>
-    <t>Plugged or Destroyed</t>
-  </si>
-  <si>
     <t>Rig Supply</t>
   </si>
   <si>
     <t>Test Well</t>
   </si>
   <si>
-    <t>Withdrawal of Water</t>
-  </si>
-  <si>
     <t>Instream Flowonly State Of Wyo Can Apply</t>
   </si>
   <si>
@@ -1454,21 +935,12 @@
     <t>Dewatering (Over 90 Days)</t>
   </si>
   <si>
-    <t>Ground Heat Exchanger well - Closed Loop Heat Pump well</t>
-  </si>
-  <si>
-    <t>Heat Pump well - Open Loop Heat Pump Well</t>
-  </si>
-  <si>
     <t>Monitoring (Ground Water Quality)</t>
   </si>
   <si>
     <t>Observation (Ground Water Levels)</t>
   </si>
   <si>
-    <t>Pit (excavation)</t>
-  </si>
-  <si>
     <t>Sparging</t>
   </si>
   <si>
@@ -1490,9 +962,6 @@
     <t>Water Supply Public</t>
   </si>
   <si>
-    <t>Water Supply Stock or Animal Watering</t>
-  </si>
-  <si>
     <t>Agricultural Irrigation</t>
   </si>
   <si>
@@ -1526,21 +995,9 @@
     <t>Non-Potable</t>
   </si>
   <si>
-    <t>Produced from Groundwater</t>
-  </si>
-  <si>
-    <t>Produced from Surface Water</t>
-  </si>
-  <si>
-    <t>Purchased from another PWS</t>
-  </si>
-  <si>
     <t>Recycled</t>
   </si>
   <si>
-    <t>Sold to another PWS</t>
-  </si>
-  <si>
     <t>In Stream Hydroelectric Water Use</t>
   </si>
   <si>
@@ -1550,9 +1007,6 @@
     <t>Other Self Supply</t>
   </si>
   <si>
-    <t>Self Supply Commercial and Institutional</t>
-  </si>
-  <si>
     <t>Self Supply Industrial</t>
   </si>
   <si>
@@ -1578,6 +1032,567 @@
   </si>
   <si>
     <t>Voluntary Environmental Flow</t>
+  </si>
+  <si>
+    <t>Mitigation By Delivery</t>
+  </si>
+  <si>
+    <t>Mitigation By Non-Use</t>
+  </si>
+  <si>
+    <t>Streamflow Maintenance From Storage</t>
+  </si>
+  <si>
+    <t>Streamflow Maintenance Storage</t>
+  </si>
+  <si>
+    <t>Subirrigation</t>
+  </si>
+  <si>
+    <t>0 Release For Enviroment</t>
+  </si>
+  <si>
+    <t>3 Storage</t>
+  </si>
+  <si>
+    <t>72-12-1 Construction Of Public Works</t>
+  </si>
+  <si>
+    <t>72-12-1 Domestic And Livestock Watering</t>
+  </si>
+  <si>
+    <t>72-12-1 Domestic One Household</t>
+  </si>
+  <si>
+    <t>72-12-1 Livestock Watering</t>
+  </si>
+  <si>
+    <t>72-12-1 Multiple Domestic Households</t>
+  </si>
+  <si>
+    <t>72-12-1 Prospecting Or Development Of Natural Resource</t>
+  </si>
+  <si>
+    <t>72-12-1 Sanitary In Conjunction With A Commercial Use</t>
+  </si>
+  <si>
+    <t>Agriculture - Wetland</t>
+  </si>
+  <si>
+    <t>Agriculture Other Than Irrigation</t>
+  </si>
+  <si>
+    <t>Air Conditioning</t>
+  </si>
+  <si>
+    <t>Air Conditioning Or Heating</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Anadromous And Resident Fish Habitat (Instream)</t>
+  </si>
+  <si>
+    <t>Annual Use</t>
+  </si>
+  <si>
+    <t>Aquatic Life (Instream)</t>
+  </si>
+  <si>
+    <t>Augmentation Well</t>
+  </si>
+  <si>
+    <t>Bed And Banks</t>
+  </si>
+  <si>
+    <t>Bottling</t>
+  </si>
+  <si>
+    <t>Brine Production Well</t>
+  </si>
+  <si>
+    <t>Cathodic Protection Well</t>
+  </si>
+  <si>
+    <t>Closed File</t>
+  </si>
+  <si>
+    <t>Commercial &amp; Indust</t>
+  </si>
+  <si>
+    <t>Commercial (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Community Type Use</t>
+  </si>
+  <si>
+    <t>Conducting Groundwater For Irrigation (Source Is A Registered Groundwater Well)</t>
+  </si>
+  <si>
+    <t>Conducting Surface Water For Irrigation (Uses Water From An Existing Appropriation)</t>
+  </si>
+  <si>
+    <t>Cooling For Indust Proces</t>
+  </si>
+  <si>
+    <t>Cultivation Of Fish</t>
+  </si>
+  <si>
+    <t>Dairy Operation</t>
+  </si>
+  <si>
+    <t>Dcii</t>
+  </si>
+  <si>
+    <t>De-Watering</t>
+  </si>
+  <si>
+    <t>Dewatering Well</t>
+  </si>
+  <si>
+    <t>Diversion Out Of Basin</t>
+  </si>
+  <si>
+    <t>Divtotal</t>
+  </si>
+  <si>
+    <t>Domestic (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Domestic And Livestock</t>
+  </si>
+  <si>
+    <t>Domestic And Livestock &amp; Livestock</t>
+  </si>
+  <si>
+    <t>Domestic Construction</t>
+  </si>
+  <si>
+    <t>Domestic General</t>
+  </si>
+  <si>
+    <t>Domestic Including Lawn And Garden</t>
+  </si>
+  <si>
+    <t>Domestic Multiple</t>
+  </si>
+  <si>
+    <t>Domestic Single</t>
+  </si>
+  <si>
+    <t>Drainage</t>
+  </si>
+  <si>
+    <t>Environmental Quality</t>
+  </si>
+  <si>
+    <t>Feed Pen Operation</t>
+  </si>
+  <si>
+    <t>Fire Protection (Instream)</t>
+  </si>
+  <si>
+    <t>Fish And Game Propogation</t>
+  </si>
+  <si>
+    <t>Fish And Wildlife Preservation And Enhancement</t>
+  </si>
+  <si>
+    <t>Fish Farming</t>
+  </si>
+  <si>
+    <t>Game Preserves</t>
+  </si>
+  <si>
+    <t>Geothermal Boreholes</t>
+  </si>
+  <si>
+    <t>Golf/Cc</t>
+  </si>
+  <si>
+    <t>Ground Heat Exchanger Well - Closed Loop Heat Pump Well</t>
+  </si>
+  <si>
+    <t>Harvesting Of Cranberries</t>
+  </si>
+  <si>
+    <t>Heat Protection For Crops</t>
+  </si>
+  <si>
+    <t>Heat Pump Well - Open Loop Heat Pump Well</t>
+  </si>
+  <si>
+    <t>Highway Construction</t>
+  </si>
+  <si>
+    <t>Human Consumption And Livestock</t>
+  </si>
+  <si>
+    <t>Hydroelectric - Priority</t>
+  </si>
+  <si>
+    <t>Industrial - Power Generation</t>
+  </si>
+  <si>
+    <t>Industrial - Salt Water</t>
+  </si>
+  <si>
+    <t>Industrial (Cooling)</t>
+  </si>
+  <si>
+    <t>Industrial (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Industrial Cooling</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Instream</t>
+  </si>
+  <si>
+    <t>Irrigation And Domestic</t>
+  </si>
+  <si>
+    <t>Irrigation And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Irrigation And Storage (An Appropriation Approved For Both Uses)</t>
+  </si>
+  <si>
+    <t>Irrigation And Storage (An Appropriation Which Was Approved For Both Uses)</t>
+  </si>
+  <si>
+    <t>Irrigation From Natural Lake</t>
+  </si>
+  <si>
+    <t>Irrigation From Natural Stream</t>
+  </si>
+  <si>
+    <t>Irrigation Of Cranberries</t>
+  </si>
+  <si>
+    <t>Irrigation-Dle</t>
+  </si>
+  <si>
+    <t>Livestock (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Maintain Level Of A Lake</t>
+  </si>
+  <si>
+    <t>Major And Minor Reservoirs</t>
+  </si>
+  <si>
+    <t>Meat Packing Plant</t>
+  </si>
+  <si>
+    <t>Medicinal</t>
+  </si>
+  <si>
+    <t>Military - Military Installations</t>
+  </si>
+  <si>
+    <t>Mining (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Mining And Milling</t>
+  </si>
+  <si>
+    <t>Mining Milling And Dewatering</t>
+  </si>
+  <si>
+    <t>Mining Or Milling Or Oil</t>
+  </si>
+  <si>
+    <t>Mobile Home Parks</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring Well</t>
+  </si>
+  <si>
+    <t>Multi Use</t>
+  </si>
+  <si>
+    <t>Multiple Purpose</t>
+  </si>
+  <si>
+    <t>Municipal - City Or County Supplied Water</t>
+  </si>
+  <si>
+    <t>Municipal/Domestic And Livestock</t>
+  </si>
+  <si>
+    <t>No Right</t>
+  </si>
+  <si>
+    <t>No Use Code On Noi</t>
+  </si>
+  <si>
+    <t>No Use Of Right Or Pod</t>
+  </si>
+  <si>
+    <t>No Water Use</t>
+  </si>
+  <si>
+    <t>Non 72-12-1 Domestic And Livestock Watering</t>
+  </si>
+  <si>
+    <t>Non 72-12-1 Domestic One Household</t>
+  </si>
+  <si>
+    <t>Non 72-12-1 Livestock Watering</t>
+  </si>
+  <si>
+    <t>Non 72-12-1 Multiple Domestic Households</t>
+  </si>
+  <si>
+    <t>Non Consumptive</t>
+  </si>
+  <si>
+    <t>Nonconsumptive</t>
+  </si>
+  <si>
+    <t>Non-Consumptive</t>
+  </si>
+  <si>
+    <t>Non-Profit Organizational Use</t>
+  </si>
+  <si>
+    <t>Oil Field Maintenance</t>
+  </si>
+  <si>
+    <t>Oil Production</t>
+  </si>
+  <si>
+    <t>Other - Mineral Explore</t>
+  </si>
+  <si>
+    <t>Other - Production</t>
+  </si>
+  <si>
+    <t>Other (Fish Hatchery)</t>
+  </si>
+  <si>
+    <t>Other Pws</t>
+  </si>
+  <si>
+    <t>Other Spillway/Floodgat</t>
+  </si>
+  <si>
+    <t>Petroleum Processing Plant</t>
+  </si>
+  <si>
+    <t>Pit (Excavation)</t>
+  </si>
+  <si>
+    <t>Plugged Or Destroyed</t>
+  </si>
+  <si>
+    <t>Pollution Control Well</t>
+  </si>
+  <si>
+    <t>Poultry And Egg Operation</t>
+  </si>
+  <si>
+    <t>Power (Self-Supplied)</t>
+  </si>
+  <si>
+    <t>Power And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Practicably Irrigable Acreage</t>
+  </si>
+  <si>
+    <t>Primary And Supplemental Irrigation</t>
+  </si>
+  <si>
+    <t>Produced From Groundwater</t>
+  </si>
+  <si>
+    <t>Produced From Surface Water</t>
+  </si>
+  <si>
+    <t>Public Parks</t>
+  </si>
+  <si>
+    <t>Public Utility</t>
+  </si>
+  <si>
+    <t>Purchased From Another Pws</t>
+  </si>
+  <si>
+    <t>Raise Dam (For Increase In Head For Power Production)</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Recreation - Beautification</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Riparian Habitat (Instream)</t>
+  </si>
+  <si>
+    <t>School Use</t>
+  </si>
+  <si>
+    <t>Secondary Recovery Of Oil</t>
+  </si>
+  <si>
+    <t>Self Supply Commercial And Institutional</t>
+  </si>
+  <si>
+    <t>Sold To Another Pws</t>
+  </si>
+  <si>
+    <t>Stacked Water Right</t>
+  </si>
+  <si>
+    <t>Stock And Domestic</t>
+  </si>
+  <si>
+    <t>Stock Water</t>
+  </si>
+  <si>
+    <t>Stockraising</t>
+  </si>
+  <si>
+    <t>Storage (For Irr From Res On Lands Not Covered By Nat Flow Appropriation / Incidental Ug Storage)</t>
+  </si>
+  <si>
+    <t>Storage (For Irr From Res On Lands Not Covered By Nat Flow Appropriation)</t>
+  </si>
+  <si>
+    <t>Storage And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Storage Use-Only</t>
+  </si>
+  <si>
+    <t>Stor-Only (Irrigation From A Reservoir On Lands Not Covered By A Natural Flow Appropriation)</t>
+  </si>
+  <si>
+    <t>Stor-Only And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Strategic Water Reserve</t>
+  </si>
+  <si>
+    <t>Stream Augmentation</t>
+  </si>
+  <si>
+    <t>Supplemental Cooling (App For Water For Cooling Through A System That Has A Prior App For Cooling)</t>
+  </si>
+  <si>
+    <t>Supplemental Cooling (Prior Appropriation For Cooling)</t>
+  </si>
+  <si>
+    <t>Supplemental Irrigation (Irr From Res On Lands Also Covered By Nat Flow Appropriation)</t>
+  </si>
+  <si>
+    <t>Supplemental Irrigation (Irrig. From Reservoir On Lands Covered By A Natural Flow Appropriation)</t>
+  </si>
+  <si>
+    <t>Supplemental Irrigation And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Supplemental Power (An App. For Water For Power Through A System That Has A Prior App. For Power)</t>
+  </si>
+  <si>
+    <t>Supplemental Power (Prior Appropriation For Power)</t>
+  </si>
+  <si>
+    <t>Supplemental Power And Incidental Underground Storage</t>
+  </si>
+  <si>
+    <t>Supplemental Storage (An Appropriation That Has A Prior Appropriation For Storage)</t>
+  </si>
+  <si>
+    <t>Supplemental Storage (Prior Appropriation For Storage)</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Temporary Transfer To In-Stream Use</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>To Be Determined</t>
+  </si>
+  <si>
+    <t>Transfer To Instream</t>
+  </si>
+  <si>
+    <t>Unassociated Gw</t>
+  </si>
+  <si>
+    <t>Unassociated Sw</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Use In A Mint Still</t>
+  </si>
+  <si>
+    <t>Use Within A School</t>
+  </si>
+  <si>
+    <t>Utility (Water Co)</t>
+  </si>
+  <si>
+    <t>Wade Blank</t>
+  </si>
+  <si>
+    <t>Water Quality</t>
+  </si>
+  <si>
+    <t>Water Supply Stock Or Animal Watering</t>
+  </si>
+  <si>
+    <t>Wildlife Management</t>
+  </si>
+  <si>
+    <t>Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Wildlife/Waterfowl</t>
+  </si>
+  <si>
+    <t>Withdrawal Of Water</t>
+  </si>
+  <si>
+    <t>Conduct Groundwater</t>
+  </si>
+  <si>
+    <t>Conduct Surface Water</t>
+  </si>
+  <si>
+    <t>Induced Groundwater Recharge</t>
+  </si>
+  <si>
+    <t>Instream Basin Management</t>
+  </si>
+  <si>
+    <t>Livestock Watering</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2076,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2429,16 +2445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="I499" sqref="I499"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2456,207 +2473,207 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2664,23 +2681,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2688,31 +2705,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2720,7 +2737,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2728,7 +2745,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2736,47 +2753,47 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2784,7 +2801,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2792,31 +2809,31 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2824,23 +2841,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>427</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -2848,2663 +2865,2663 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>495</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>402</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>401</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>472</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>375</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>376</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>463</v>
+        <v>243</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>449</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="B143" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>450</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>389</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>378</v>
+        <v>97</v>
       </c>
       <c r="B157" t="s">
-        <v>370</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>511</v>
+        <v>96</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>473</v>
+        <v>329</v>
       </c>
       <c r="B160" t="s">
-        <v>401</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="B162" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>406</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
-        <v>401</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B171" t="s">
-        <v>401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>255</v>
       </c>
       <c r="B172" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>474</v>
+        <v>256</v>
       </c>
       <c r="B173" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B174" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>487</v>
+        <v>395</v>
       </c>
       <c r="B175" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="B176" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="B177" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B181" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B182" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>397</v>
       </c>
       <c r="B183" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="B184" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>168</v>
+        <v>398</v>
       </c>
       <c r="B185" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="B186" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>502</v>
+        <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>429</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B190" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>517</v>
       </c>
       <c r="B194" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>451</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="B197" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>465</v>
+        <v>291</v>
       </c>
       <c r="B202" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="B209" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="B210" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="B211" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>456</v>
+        <v>119</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>406</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>407</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>408</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>200</v>
+        <v>411</v>
       </c>
       <c r="B226" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>467</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>256</v>
+        <v>413</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="B234" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="B237" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="B238" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="B239" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="B240" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B241" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>415</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>99</v>
+        <v>416</v>
       </c>
       <c r="B245" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B246" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B247" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="B248" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="B250" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="B251" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>195</v>
+        <v>418</v>
       </c>
       <c r="B252" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="B253" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="B255" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="B257" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="B258" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="B259" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="B260" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="B261" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>458</v>
+        <v>148</v>
       </c>
       <c r="B262" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>149</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="B266" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="B267" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>459</v>
+        <v>192</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>475</v>
+        <v>334</v>
       </c>
       <c r="B270" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="B271" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="B272" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="B273" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="B275" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="B276" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>147</v>
+        <v>426</v>
       </c>
       <c r="B277" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B278" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="B279" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>348</v>
+        <v>87</v>
       </c>
       <c r="B280" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>469</v>
+        <v>126</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="B282" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="B283" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="B284" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="B285" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="B286" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="B288" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="B289" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>437</v>
+        <v>218</v>
       </c>
       <c r="B290" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>435</v>
+        <v>219</v>
       </c>
       <c r="B291" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B292" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="B293" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B294" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="B296" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>151</v>
+        <v>432</v>
       </c>
       <c r="B297" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="B298" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>264</v>
+        <v>434</v>
       </c>
       <c r="B299" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>310</v>
+        <v>435</v>
       </c>
       <c r="B300" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>309</v>
+        <v>436</v>
       </c>
       <c r="B301" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="B302" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B303" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="B305" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B306" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>441</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="B309" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>476</v>
+        <v>319</v>
       </c>
       <c r="B310" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>69</v>
+        <v>442</v>
       </c>
       <c r="B311" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>503</v>
+        <v>274</v>
       </c>
       <c r="B312" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B313" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B315" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="B316" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="B317" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="B318" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B319" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>51</v>
+        <v>443</v>
       </c>
       <c r="B320" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="B321" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="B322" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>504</v>
+        <v>165</v>
       </c>
       <c r="B323" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>313</v>
+        <v>445</v>
       </c>
       <c r="B324" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="B325" t="s">
-        <v>370</v>
+        <v>49</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="B326" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>477</v>
+        <v>195</v>
       </c>
       <c r="B327" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B328" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="B329" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="B330" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="B331" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="B332" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="B333" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="B334" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B335" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="B336" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B338" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B339" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="B340" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B341" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B342" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="B343" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B344" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>29</v>
+        <v>455</v>
       </c>
       <c r="B345" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>30</v>
+        <v>456</v>
       </c>
       <c r="B346" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="B347" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="B348" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>498</v>
+        <v>107</v>
       </c>
       <c r="B349" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="B350" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>261</v>
+        <v>457</v>
       </c>
       <c r="B351" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="B352" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="B353" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="B354" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="B355" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="B356" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B357" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>112</v>
+        <v>462</v>
       </c>
       <c r="B358" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="B359" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>179</v>
+        <v>463</v>
       </c>
       <c r="B360" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="B361" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="B362" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B363" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B364" t="s">
-        <v>370</v>
+        <v>49</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="B365" t="s">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="B366" t="s">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>375</v>
+        <v>71</v>
       </c>
       <c r="B367" t="s">
-        <v>370</v>
+        <v>49</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="B368" t="s">
-        <v>370</v>
+        <v>32</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="B369" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>500</v>
+        <v>236</v>
       </c>
       <c r="B370" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>114</v>
+        <v>466</v>
       </c>
       <c r="B371" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B372" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B373" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="B374" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="B375" t="s">
-        <v>380</v>
+        <v>236</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="B376" t="s">
-        <v>380</v>
+        <v>163</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B377" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="B378" t="s">
-        <v>417</v>
+        <v>165</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
       <c r="B379" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>209</v>
+        <v>468</v>
       </c>
       <c r="B380" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B381" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="B382" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="B383" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="B384" t="s">
         <v>261</v>
@@ -5512,495 +5529,495 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="B385" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>318</v>
+        <v>469</v>
       </c>
       <c r="B386" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B387" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="B388" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B389" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B390" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="B391" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>505</v>
+        <v>196</v>
       </c>
       <c r="B392" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>506</v>
+        <v>75</v>
       </c>
       <c r="B393" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>507</v>
+        <v>227</v>
       </c>
       <c r="B394" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="B395" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="B396" t="s">
-        <v>401</v>
+        <v>49</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>510</v>
+        <v>197</v>
       </c>
       <c r="B397" t="s">
-        <v>401</v>
+        <v>165</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="B398" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="B399" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B400" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="B401" t="s">
-        <v>398</v>
+        <v>135</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="B402" t="s">
-        <v>398</v>
+        <v>251</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>501</v>
+        <v>328</v>
       </c>
       <c r="B403" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>478</v>
+        <v>262</v>
       </c>
       <c r="B404" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="B405" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>438</v>
+        <v>228</v>
       </c>
       <c r="B406" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B407" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="B408" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>226</v>
+        <v>473</v>
       </c>
       <c r="B409" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="B410" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B411" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>227</v>
+        <v>474</v>
       </c>
       <c r="B412" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B413" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="B414" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="B415" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>232</v>
+        <v>475</v>
       </c>
       <c r="B416" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="B417" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="B418" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>385</v>
+        <v>144</v>
       </c>
       <c r="B419" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="B420" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="B421" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B422" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="B423" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="B424" t="s">
-        <v>380</v>
+        <v>135</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>389</v>
+        <v>246</v>
       </c>
       <c r="B425" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="B426" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>211</v>
+        <v>479</v>
       </c>
       <c r="B427" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>212</v>
+        <v>480</v>
       </c>
       <c r="B428" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B429" t="s">
-        <v>493</v>
+        <v>241</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>213</v>
+        <v>482</v>
       </c>
       <c r="B430" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="B431" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>31</v>
+        <v>484</v>
       </c>
       <c r="B432" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="B433" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>32</v>
+        <v>485</v>
       </c>
       <c r="B434" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B435" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="B436" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="B437" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="B438" t="s">
-        <v>401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="B439" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B440" t="s">
-        <v>266</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="B441" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="B442" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="B443" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="B444" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B445" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B446" t="s">
         <v>165</v>
@@ -6008,151 +6025,151 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>414</v>
+        <v>17</v>
       </c>
       <c r="B447" t="s">
-        <v>401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>182</v>
+        <v>488</v>
       </c>
       <c r="B448" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>181</v>
+        <v>489</v>
       </c>
       <c r="B449" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="B450" t="s">
-        <v>380</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>395</v>
+        <v>111</v>
       </c>
       <c r="B451" t="s">
-        <v>380</v>
+        <v>100</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="B452" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>377</v>
+        <v>492</v>
       </c>
       <c r="B453" t="s">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="B454" t="s">
-        <v>401</v>
+        <v>100</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B455" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>323</v>
+        <v>494</v>
       </c>
       <c r="B456" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="B457" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="B458" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="B459" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>439</v>
+        <v>200</v>
       </c>
       <c r="B460" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="B461" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>325</v>
+        <v>498</v>
       </c>
       <c r="B462" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B463" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B464" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="B465" t="s">
         <v>2</v>
@@ -6160,7 +6177,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="B466" t="s">
         <v>2</v>
@@ -6168,31 +6185,31 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="B467" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>444</v>
+        <v>201</v>
       </c>
       <c r="B468" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="B469" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="B470" t="s">
         <v>2</v>
@@ -6200,312 +6217,358 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>327</v>
+        <v>502</v>
       </c>
       <c r="B471" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="B472" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>364</v>
+        <v>503</v>
       </c>
       <c r="B473" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B474" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="B475" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B476" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>514</v>
+        <v>231</v>
       </c>
       <c r="B477" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="B478" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="B479" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B480" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B481" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B482" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="B483" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="B484" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B485" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="B486" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B487" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>480</v>
+        <v>205</v>
       </c>
       <c r="B488" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="B489" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>482</v>
+        <v>207</v>
       </c>
       <c r="B490" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>483</v>
+        <v>233</v>
       </c>
       <c r="B491" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>484</v>
+        <v>315</v>
       </c>
       <c r="B492" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>485</v>
+        <v>304</v>
       </c>
       <c r="B493" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B494" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>512</v>
+        <v>306</v>
       </c>
       <c r="B495" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B496" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B497" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>337</v>
+        <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B499" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
       <c r="B500" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="B501" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="B502" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="B503" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="B504" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>342</v>
+        <v>134</v>
       </c>
       <c r="B505" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="B506" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B507" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="B508" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>511</v>
+      </c>
+      <c r="B509" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>512</v>
+      </c>
+      <c r="B510" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>214</v>
+      </c>
+      <c r="B511" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B508">
-    <sortCondition ref="A3:A508"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B538">
+    <sortCondition ref="A3:A538"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B1FBE4-7203-4FEA-A325-0DCFA83ADAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536380C-E5D9-44F8-87DF-6CE4DA9E3711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="521">
   <si>
     <t>Name</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>Livestock Watering</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -2445,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,37 +2470,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -2505,55 +2511,55 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>152</v>
@@ -2561,7 +2567,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>152</v>
@@ -2569,7 +2575,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
@@ -2577,15 +2583,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2593,7 +2599,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2609,7 +2615,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -2617,7 +2623,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2633,7 +2639,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2641,95 +2647,95 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>349</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2745,23 +2751,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -2777,23 +2783,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2801,47 +2807,47 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
@@ -2849,23 +2855,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -2873,7 +2879,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -2881,7 +2887,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -2897,7 +2903,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
@@ -2905,7 +2911,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
@@ -2921,15 +2927,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>515</v>
       </c>
       <c r="B60" t="s">
         <v>163</v>
@@ -2937,7 +2943,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s">
         <v>163</v>
@@ -2945,15 +2951,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2961,31 +2967,31 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
         <v>251</v>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s">
         <v>251</v>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
         <v>251</v>
@@ -3009,15 +3015,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -3025,31 +3031,31 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
         <v>135</v>
@@ -3057,7 +3063,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -3065,39 +3071,39 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s">
         <v>49</v>
@@ -3105,15 +3111,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>371</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
         <v>165</v>
@@ -3121,47 +3127,47 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="B89" t="s">
         <v>78</v>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
         <v>78</v>
@@ -3177,7 +3183,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B91" t="s">
         <v>78</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B92" t="s">
         <v>78</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
         <v>78</v>
@@ -3201,7 +3207,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
         <v>78</v>
@@ -3209,7 +3215,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="B95" t="s">
         <v>78</v>
@@ -3217,7 +3223,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s">
         <v>78</v>
@@ -3225,7 +3231,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
         <v>78</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
         <v>78</v>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B99" t="s">
         <v>78</v>
@@ -3249,7 +3255,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
@@ -3257,23 +3263,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
         <v>78</v>
@@ -3289,15 +3295,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
         <v>165</v>
@@ -3305,7 +3311,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
         <v>165</v>
@@ -3313,7 +3319,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
         <v>165</v>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="B109" t="s">
         <v>165</v>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
         <v>165</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>165</v>
@@ -3345,7 +3351,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B112" t="s">
         <v>165</v>
@@ -3353,7 +3359,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B114" t="s">
         <v>165</v>
@@ -3369,7 +3375,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
         <v>165</v>
@@ -3377,7 +3383,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
         <v>165</v>
@@ -3385,23 +3391,23 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
         <v>165</v>
@@ -3409,23 +3415,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>384</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
         <v>90</v>
@@ -3433,7 +3439,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
         <v>90</v>
@@ -3441,23 +3447,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B126" t="s">
         <v>90</v>
@@ -3465,15 +3471,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
         <v>112</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>386</v>
+        <v>115</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
@@ -3489,7 +3495,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
@@ -3497,7 +3503,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>387</v>
+        <v>116</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
@@ -3505,15 +3511,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
@@ -3521,7 +3527,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
@@ -3529,7 +3535,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
@@ -3537,7 +3543,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
@@ -3545,7 +3551,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
@@ -3577,7 +3583,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
@@ -3585,23 +3591,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
         <v>165</v>
@@ -3609,7 +3615,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
         <v>165</v>
@@ -3617,7 +3623,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
         <v>165</v>
@@ -3625,7 +3631,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
         <v>165</v>
@@ -3633,7 +3639,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
         <v>165</v>
@@ -3641,7 +3647,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
         <v>165</v>
@@ -3649,23 +3655,23 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="B152" t="s">
         <v>165</v>
@@ -3673,15 +3679,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>95</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B154" t="s">
         <v>95</v>
@@ -3689,7 +3695,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="B155" t="s">
         <v>95</v>
@@ -3697,7 +3703,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="B156" t="s">
         <v>95</v>
@@ -3705,7 +3711,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B157" t="s">
         <v>95</v>
@@ -3713,47 +3719,47 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="B158" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
       <c r="B162" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B163" t="s">
         <v>32</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
         <v>32</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B165" t="s">
         <v>32</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B166" t="s">
         <v>32</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -3793,7 +3799,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B168" t="s">
         <v>32</v>
@@ -3801,31 +3807,31 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>84</v>
+        <v>393</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>393</v>
+        <v>255</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B172" t="s">
         <v>251</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="B173" t="s">
         <v>251</v>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B174" t="s">
         <v>251</v>
@@ -3849,7 +3855,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>395</v>
+        <v>257</v>
       </c>
       <c r="B175" t="s">
         <v>251</v>
@@ -3857,7 +3863,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
         <v>251</v>
@@ -3865,15 +3871,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
         <v>49</v>
@@ -3881,23 +3887,23 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B181" t="s">
         <v>78</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>397</v>
       </c>
       <c r="B182" t="s">
         <v>78</v>
@@ -3913,15 +3919,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="B183" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="B184" t="s">
         <v>100</v>
@@ -3929,7 +3935,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="B185" t="s">
         <v>100</v>
@@ -3937,7 +3943,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B186" t="s">
         <v>100</v>
@@ -3945,55 +3951,55 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="B189" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="B192" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>41</v>
+        <v>517</v>
       </c>
       <c r="B193" t="s">
         <v>32</v>
@@ -4001,15 +4007,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>517</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>58</v>
+        <v>399</v>
       </c>
       <c r="B195" t="s">
         <v>49</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s">
         <v>49</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
         <v>49</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B198" t="s">
         <v>49</v>
@@ -4041,7 +4047,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B199" t="s">
         <v>49</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="B200" t="s">
         <v>49</v>
@@ -4057,7 +4063,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>49</v>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B202" t="s">
         <v>49</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
         <v>49</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="B204" t="s">
         <v>49</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
         <v>49</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B206" t="s">
         <v>49</v>
@@ -4105,23 +4111,23 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>404</v>
+        <v>157</v>
       </c>
       <c r="B209" t="s">
         <v>152</v>
@@ -4129,15 +4135,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>157</v>
+        <v>405</v>
       </c>
       <c r="B210" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="B211" t="s">
         <v>112</v>
@@ -4145,7 +4151,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>518</v>
+        <v>119</v>
       </c>
       <c r="B212" t="s">
         <v>112</v>
@@ -4153,23 +4159,23 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B215" t="s">
         <v>112</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="B216" t="s">
         <v>112</v>
@@ -4185,23 +4191,23 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="B217" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -4217,7 +4223,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -4233,7 +4239,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -4249,7 +4255,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -4273,7 +4279,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -4281,23 +4287,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>412</v>
+        <v>122</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="B230" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -4305,7 +4311,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -4313,31 +4319,31 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>413</v>
+        <v>63</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B235" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B236" t="s">
         <v>152</v>
@@ -4345,15 +4351,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B237" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="B238" t="s">
         <v>135</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="B239" t="s">
         <v>135</v>
@@ -4369,87 +4375,87 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>519</v>
+        <v>64</v>
       </c>
       <c r="B240" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="B242" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>415</v>
+        <v>284</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="B244" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>416</v>
+        <v>124</v>
       </c>
       <c r="B245" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B246" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B247" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B248" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>417</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
         <v>49</v>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>66</v>
+        <v>418</v>
       </c>
       <c r="B251" t="s">
         <v>49</v>
@@ -4465,31 +4471,31 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="B252" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>271</v>
+        <v>419</v>
       </c>
       <c r="B253" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="B254" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B255" t="s">
         <v>145</v>
@@ -4497,15 +4503,15 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B256" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B257" t="s">
         <v>112</v>
@@ -4513,15 +4519,15 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B258" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>145</v>
+        <v>420</v>
       </c>
       <c r="B259" t="s">
         <v>145</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B260" t="s">
         <v>145</v>
@@ -4537,7 +4543,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="B261" t="s">
         <v>145</v>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>148</v>
+        <v>422</v>
       </c>
       <c r="B262" t="s">
         <v>145</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B263" t="s">
         <v>145</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="B264" t="s">
         <v>145</v>
@@ -4569,15 +4575,15 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="B265" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -4585,15 +4591,15 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="B267" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="B268" t="s">
         <v>165</v>
@@ -4601,7 +4607,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B269" t="s">
         <v>165</v>
@@ -4609,7 +4615,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="B270" t="s">
         <v>165</v>
@@ -4617,23 +4623,23 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>193</v>
+        <v>424</v>
       </c>
       <c r="B271" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="B272" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="B273" t="s">
         <v>32</v>
@@ -4641,23 +4647,23 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>286</v>
+        <v>425</v>
       </c>
       <c r="B274" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="B275" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="B276" t="s">
         <v>32</v>
@@ -4665,47 +4671,47 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="B277" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="B278" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>427</v>
+        <v>87</v>
       </c>
       <c r="B279" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B280" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>126</v>
+        <v>428</v>
       </c>
       <c r="B281" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>428</v>
+        <v>88</v>
       </c>
       <c r="B282" t="s">
         <v>78</v>
@@ -4713,15 +4719,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="B283" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="B284" t="s">
         <v>163</v>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>429</v>
+        <v>217</v>
       </c>
       <c r="B285" t="s">
         <v>163</v>
@@ -4737,7 +4743,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="B286" t="s">
         <v>163</v>
@@ -4745,23 +4751,23 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>296</v>
+        <v>161</v>
       </c>
       <c r="B287" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="B289" t="s">
         <v>163</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B290" t="s">
         <v>163</v>
@@ -4777,26 +4783,26 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="B291" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="B292" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="B293" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -6559,12 +6565,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="1"/>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B514" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B538">
-    <sortCondition ref="A3:A538"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B514">
+    <sortCondition ref="A2:A514"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
+++ b/5_CustomFunctions/AssignPrimaryUseCategory/PrimaryBenUseInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\5_CustomFunctions\AssignPrimaryUseCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536380C-E5D9-44F8-87DF-6CE4DA9E3711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0515C-5028-4E29-99A9-F6AEA417C53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryBenUseInput" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="531">
   <si>
     <t>Name</t>
   </si>
@@ -1596,6 +1596,36 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>Water Level</t>
+  </si>
+  <si>
+    <t>Total Storage</t>
+  </si>
+  <si>
+    <t>Lake Res Elevation</t>
+  </si>
+  <si>
+    <t>Community Type Use - Mdwca</t>
+  </si>
+  <si>
+    <t>No Pre-1907 Water Right Exists On This Land</t>
+  </si>
+  <si>
+    <t>Parochial</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Private Or Commercial Supplied</t>
+  </si>
+  <si>
+    <t>School Use - Public</t>
+  </si>
+  <si>
+    <t>Universities</t>
   </si>
 </sst>
 </file>
@@ -2079,9 +2109,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2448,17 +2477,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2470,40 +2499,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>338</v>
-      </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -2511,55 +2537,55 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>152</v>
@@ -2567,7 +2593,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>152</v>
@@ -2575,7 +2601,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
@@ -2583,15 +2609,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2599,7 +2625,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2607,7 +2633,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2615,7 +2641,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -2623,7 +2649,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2631,7 +2657,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2639,7 +2665,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2647,95 +2673,95 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2743,7 +2769,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2751,23 +2777,23 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -2775,7 +2801,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -2783,23 +2809,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2807,47 +2833,47 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>145</v>
@@ -2855,23 +2881,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>361</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -2879,7 +2905,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -2887,7 +2913,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -2895,7 +2921,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -2903,7 +2929,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
@@ -2911,7 +2937,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
@@ -2919,7 +2945,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
@@ -2927,15 +2953,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>515</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
         <v>163</v>
@@ -2943,7 +2969,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B61" t="s">
         <v>163</v>
@@ -2951,55 +2977,55 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>364</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s">
         <v>251</v>
@@ -3007,7 +3033,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s">
         <v>251</v>
@@ -3015,55 +3041,55 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -3071,31 +3097,31 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -3103,39 +3129,39 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>372</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
         <v>165</v>
@@ -3143,15 +3169,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
         <v>165</v>
@@ -3159,23 +3185,23 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
         <v>78</v>
@@ -3183,7 +3209,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B91" t="s">
         <v>78</v>
@@ -3191,7 +3217,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B92" t="s">
         <v>78</v>
@@ -3199,7 +3225,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
         <v>78</v>
@@ -3207,7 +3233,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="B94" t="s">
         <v>78</v>
@@ -3215,7 +3241,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
         <v>78</v>
@@ -3223,7 +3249,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>78</v>
@@ -3231,7 +3257,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
         <v>78</v>
@@ -3239,7 +3265,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
         <v>78</v>
@@ -3247,7 +3273,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B99" t="s">
         <v>78</v>
@@ -3255,7 +3281,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
@@ -3263,15 +3289,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
@@ -3279,15 +3305,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
         <v>78</v>
@@ -3295,23 +3321,23 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="B107" t="s">
         <v>165</v>
@@ -3319,7 +3345,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
         <v>165</v>
@@ -3327,7 +3353,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>383</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
         <v>165</v>
@@ -3335,7 +3361,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
         <v>165</v>
@@ -3343,7 +3369,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
       <c r="B111" t="s">
         <v>165</v>
@@ -3351,7 +3377,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
         <v>165</v>
@@ -3359,7 +3385,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
@@ -3367,7 +3393,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B114" t="s">
         <v>165</v>
@@ -3375,7 +3401,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
         <v>165</v>
@@ -3383,7 +3409,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
         <v>165</v>
@@ -3391,15 +3417,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
         <v>165</v>
@@ -3407,39 +3433,39 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
         <v>90</v>
@@ -3447,15 +3473,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>385</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
         <v>90</v>
@@ -3463,31 +3489,31 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>386</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
@@ -3495,7 +3521,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
@@ -3503,7 +3529,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
@@ -3511,23 +3537,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
@@ -3535,7 +3561,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
@@ -3543,7 +3569,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
@@ -3551,7 +3577,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
@@ -3559,7 +3585,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
@@ -3567,7 +3593,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
@@ -3575,7 +3601,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
@@ -3583,7 +3609,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
@@ -3591,31 +3617,31 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
         <v>165</v>
@@ -3623,7 +3649,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B146" t="s">
         <v>165</v>
@@ -3631,7 +3657,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B147" t="s">
         <v>165</v>
@@ -3639,7 +3665,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B148" t="s">
         <v>165</v>
@@ -3647,7 +3673,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B149" t="s">
         <v>165</v>
@@ -3655,15 +3681,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
@@ -3671,31 +3697,31 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B153" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
       <c r="B154" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="B155" t="s">
         <v>95</v>
@@ -3703,7 +3729,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B156" t="s">
         <v>95</v>
@@ -3711,7 +3737,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
       <c r="B157" t="s">
         <v>95</v>
@@ -3719,55 +3745,55 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B164" t="s">
         <v>32</v>
@@ -3775,7 +3801,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B165" t="s">
         <v>32</v>
@@ -3783,7 +3809,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B166" t="s">
         <v>32</v>
@@ -3791,7 +3817,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s">
         <v>32</v>
@@ -3799,7 +3825,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B168" t="s">
         <v>32</v>
@@ -3807,39 +3833,39 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>394</v>
+        <v>255</v>
       </c>
       <c r="B173" t="s">
         <v>251</v>
@@ -3847,7 +3873,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="B174" t="s">
         <v>251</v>
@@ -3855,7 +3881,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="B175" t="s">
         <v>251</v>
@@ -3863,7 +3889,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="B176" t="s">
         <v>251</v>
@@ -3871,47 +3897,47 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>396</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="B181" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>397</v>
+        <v>85</v>
       </c>
       <c r="B182" t="s">
         <v>78</v>
@@ -3919,23 +3945,23 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B183" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B185" t="s">
         <v>100</v>
@@ -3943,7 +3969,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="B186" t="s">
         <v>100</v>
@@ -3951,47 +3977,47 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B192" t="s">
         <v>32</v>
@@ -3999,31 +4025,31 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>517</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>400</v>
+        <v>58</v>
       </c>
       <c r="B196" t="s">
         <v>49</v>
@@ -4031,7 +4057,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B197" t="s">
         <v>49</v>
@@ -4039,7 +4065,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B198" t="s">
         <v>49</v>
@@ -4047,7 +4073,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B199" t="s">
         <v>49</v>
@@ -4055,7 +4081,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="B200" t="s">
         <v>49</v>
@@ -4063,7 +4089,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="B201" t="s">
         <v>49</v>
@@ -4071,7 +4097,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="B202" t="s">
         <v>49</v>
@@ -4079,7 +4105,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="B203" t="s">
         <v>49</v>
@@ -4087,7 +4113,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B204" t="s">
         <v>49</v>
@@ -4095,7 +4121,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
         <v>49</v>
@@ -4103,7 +4129,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="B206" t="s">
         <v>49</v>
@@ -4111,47 +4137,47 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>404</v>
+        <v>60</v>
       </c>
       <c r="B208" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="B209" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B210" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>518</v>
+        <v>157</v>
       </c>
       <c r="B211" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="B212" t="s">
         <v>112</v>
@@ -4159,15 +4185,15 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B214" t="s">
         <v>112</v>
@@ -4175,15 +4201,15 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="B216" t="s">
         <v>112</v>
@@ -4191,31 +4217,31 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>406</v>
+        <v>18</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -4223,7 +4249,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -4231,7 +4257,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -4239,7 +4265,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -4247,7 +4273,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -4255,7 +4281,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -4263,7 +4289,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>410</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -4271,7 +4297,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -4279,7 +4305,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -4287,15 +4313,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="B229" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -4303,15 +4329,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -4319,135 +4345,135 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="B234" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="B235" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="B237" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="B238" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>519</v>
+        <v>159</v>
       </c>
       <c r="B239" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="B241" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="B242" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="B243" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>30</v>
+        <v>416</v>
       </c>
       <c r="B247" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>417</v>
+        <v>65</v>
       </c>
       <c r="B249" t="s">
         <v>49</v>
@@ -4455,31 +4481,31 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>418</v>
+        <v>44</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>271</v>
+        <v>417</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
         <v>49</v>
@@ -4487,39 +4513,39 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="B254" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B255" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>118</v>
+        <v>419</v>
       </c>
       <c r="B256" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B257" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B258" t="s">
         <v>145</v>
@@ -4527,23 +4553,23 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>420</v>
+        <v>118</v>
       </c>
       <c r="B259" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>421</v>
+        <v>125</v>
       </c>
       <c r="B260" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B261" t="s">
         <v>145</v>
@@ -4551,7 +4577,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B262" t="s">
         <v>145</v>
@@ -4559,7 +4585,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B263" t="s">
         <v>145</v>
@@ -4567,7 +4593,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B264" t="s">
         <v>145</v>
@@ -4575,47 +4601,47 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>295</v>
+        <v>422</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>285</v>
+        <v>423</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B267" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B268" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B269" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B270" t="s">
         <v>165</v>
@@ -4623,39 +4649,39 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="B271" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="B273" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B274" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="B275" t="s">
         <v>32</v>
@@ -4663,7 +4689,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>426</v>
+        <v>286</v>
       </c>
       <c r="B276" t="s">
         <v>32</v>
@@ -4671,47 +4697,47 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="B277" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="B278" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B281" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B282" t="s">
         <v>78</v>
@@ -4719,31 +4745,31 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="B283" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B284" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B285" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="B286" t="s">
         <v>163</v>
@@ -4751,15 +4777,15 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="B287" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="B288" t="s">
         <v>163</v>
@@ -4767,7 +4793,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="B289" t="s">
         <v>163</v>
@@ -4775,55 +4801,55 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B290" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="B291" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="B292" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>520</v>
+        <v>219</v>
       </c>
       <c r="B293" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="B294" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="B295" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -4831,23 +4857,23 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>432</v>
+        <v>194</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="B298" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>434</v>
+        <v>273</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -4855,95 +4881,95 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B300" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B301" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B302" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B303" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B304" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="B305" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B306" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B307" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
       <c r="B308" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="B309" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="B310" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B311" t="s">
         <v>165</v>
@@ -4951,111 +4977,111 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>46</v>
+        <v>442</v>
       </c>
       <c r="B315" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B316" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B317" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="B318" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B319" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>443</v>
+        <v>301</v>
       </c>
       <c r="B320" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>444</v>
+        <v>47</v>
       </c>
       <c r="B321" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>68</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="B323" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B324" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
         <v>49</v>
@@ -5063,15 +5089,15 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>447</v>
+        <v>68</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B327" t="s">
         <v>165</v>
@@ -5079,151 +5105,151 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B328" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="B329" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B330" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B331" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B332" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>451</v>
+        <v>323</v>
       </c>
       <c r="B333" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B334" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="B335" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>128</v>
+        <v>526</v>
       </c>
       <c r="B336" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B337" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>162</v>
+        <v>451</v>
       </c>
       <c r="B338" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>220</v>
+        <v>452</v>
       </c>
       <c r="B339" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>454</v>
+        <v>127</v>
       </c>
       <c r="B340" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B341" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="B342" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="B343" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="B344" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B345" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>456</v>
+        <v>103</v>
       </c>
       <c r="B346" t="s">
         <v>100</v>
@@ -5231,7 +5257,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B347" t="s">
         <v>100</v>
@@ -5239,15 +5265,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="B348" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B349" t="s">
         <v>100</v>
@@ -5255,7 +5281,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="B350" t="s">
         <v>100</v>
@@ -5263,87 +5289,87 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>458</v>
+        <v>104</v>
       </c>
       <c r="B352" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B353" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="B354" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>460</v>
+        <v>109</v>
       </c>
       <c r="B355" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B356" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>163</v>
+        <v>458</v>
       </c>
       <c r="B357" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>462</v>
+        <v>221</v>
       </c>
       <c r="B358" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="B359" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="B360" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="B361" t="s">
         <v>163</v>
@@ -5351,7 +5377,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>224</v>
+        <v>460</v>
       </c>
       <c r="B362" t="s">
         <v>163</v>
@@ -5359,191 +5385,191 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>69</v>
+        <v>461</v>
       </c>
       <c r="B363" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B364" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="B365" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
       <c r="B366" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>71</v>
+        <v>463</v>
       </c>
       <c r="B367" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="B368" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="B369" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="B370" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>466</v>
+        <v>70</v>
       </c>
       <c r="B371" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="B372" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>239</v>
+        <v>464</v>
       </c>
       <c r="B373" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="B374" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B375" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>320</v>
+        <v>465</v>
       </c>
       <c r="B376" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="B377" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B378" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="B379" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>468</v>
+        <v>239</v>
       </c>
       <c r="B380" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B381" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B382" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="B383" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="B384" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="B385" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="B386" t="s">
         <v>112</v>
@@ -5551,95 +5577,95 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>130</v>
+        <v>468</v>
       </c>
       <c r="B387" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="B388" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B389" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="B390" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="B391" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="B392" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="B393" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="B394" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="B395" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>471</v>
+        <v>225</v>
       </c>
       <c r="B396" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B397" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="B398" t="s">
         <v>49</v>
@@ -5647,199 +5673,199 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="B399" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="B400" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="B401" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="B402" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>328</v>
+        <v>529</v>
       </c>
       <c r="B403" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="B404" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B405" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="B406" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="B407" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="B408" t="s">
-        <v>249</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="B409" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B410" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B411" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>474</v>
+        <v>262</v>
       </c>
       <c r="B412" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="B413" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="B414" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="B415" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>475</v>
+        <v>250</v>
       </c>
       <c r="B416" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B417" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="B418" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="B419" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B420" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="B421" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="B422" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B423" t="s">
         <v>135</v>
@@ -5847,7 +5873,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>142</v>
+        <v>475</v>
       </c>
       <c r="B424" t="s">
         <v>135</v>
@@ -5855,103 +5881,103 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="B425" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>478</v>
+        <v>139</v>
       </c>
       <c r="B426" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>479</v>
+        <v>144</v>
       </c>
       <c r="B427" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B428" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>481</v>
+        <v>140</v>
       </c>
       <c r="B429" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>482</v>
+        <v>141</v>
       </c>
       <c r="B430" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>483</v>
+        <v>143</v>
       </c>
       <c r="B431" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>484</v>
+        <v>142</v>
       </c>
       <c r="B432" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B433" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B434" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>316</v>
+        <v>479</v>
       </c>
       <c r="B435" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>335</v>
+        <v>480</v>
       </c>
       <c r="B436" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="B437" t="s">
         <v>241</v>
@@ -5959,87 +5985,87 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="B438" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>229</v>
+        <v>483</v>
       </c>
       <c r="B439" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>337</v>
+        <v>484</v>
       </c>
       <c r="B440" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="B441" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="B442" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="B443" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>487</v>
+        <v>335</v>
       </c>
       <c r="B444" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="B445" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="B447" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="B448" t="s">
         <v>3</v>
@@ -6047,31 +6073,31 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>230</v>
       </c>
       <c r="B449" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>258</v>
       </c>
       <c r="B450" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="B451" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B452" t="s">
         <v>251</v>
@@ -6079,127 +6105,127 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>492</v>
+        <v>31</v>
       </c>
       <c r="B453" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>199</v>
       </c>
       <c r="B454" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="B455" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B456" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B457" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B458" t="s">
-        <v>236</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="B459" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>200</v>
+        <v>491</v>
       </c>
       <c r="B460" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B461" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B462" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B463" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>99</v>
+        <v>494</v>
       </c>
       <c r="B464" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B465" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>275</v>
+        <v>496</v>
       </c>
       <c r="B466" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>500</v>
+        <v>259</v>
       </c>
       <c r="B467" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B468" t="s">
         <v>165</v>
@@ -6207,39 +6233,39 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="B469" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B470" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="B471" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="B472" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B473" t="s">
         <v>2</v>
@@ -6247,7 +6273,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B474" t="s">
         <v>2</v>
@@ -6255,15 +6281,15 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>2</v>
+        <v>522</v>
       </c>
       <c r="B475" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B476" t="s">
         <v>165</v>
@@ -6271,79 +6297,79 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B477" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="B478" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B479" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B480" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B481" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>332</v>
+        <v>503</v>
       </c>
       <c r="B482" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="B483" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B484" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="B485" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>204</v>
+        <v>504</v>
       </c>
       <c r="B486" t="s">
         <v>165</v>
@@ -6351,103 +6377,103 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>509</v>
+        <v>231</v>
       </c>
       <c r="B487" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>205</v>
+        <v>505</v>
       </c>
       <c r="B488" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>206</v>
+        <v>506</v>
       </c>
       <c r="B489" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>207</v>
+        <v>507</v>
       </c>
       <c r="B490" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B491" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B492" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>304</v>
+        <v>508</v>
       </c>
       <c r="B493" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="B494" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>306</v>
+        <v>521</v>
       </c>
       <c r="B495" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B496" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="B497" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B498" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B499" t="s">
         <v>165</v>
@@ -6455,15 +6481,15 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="B500" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B501" t="s">
         <v>165</v>
@@ -6471,71 +6497,71 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B502" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B503" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="B504" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="B505" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B506" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="B507" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="B508" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B509" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>512</v>
+        <v>203</v>
       </c>
       <c r="B510" t="s">
         <v>165</v>
@@ -6543,39 +6569,119 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="B511" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>513</v>
+        <v>208</v>
       </c>
       <c r="B512" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
+        <v>209</v>
+      </c>
+      <c r="B513" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>210</v>
+      </c>
+      <c r="B514" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>133</v>
+      </c>
+      <c r="B515" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>134</v>
+      </c>
+      <c r="B516" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>211</v>
+      </c>
+      <c r="B517" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>212</v>
+      </c>
+      <c r="B518" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>213</v>
+      </c>
+      <c r="B519" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>511</v>
+      </c>
+      <c r="B520" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>512</v>
+      </c>
+      <c r="B521" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>214</v>
+      </c>
+      <c r="B522" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>513</v>
+      </c>
+      <c r="B523" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
         <v>514</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B524" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B514" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B514">
-    <sortCondition ref="A2:A514"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B525">
+    <sortCondition ref="A3:A525"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
